--- a/2022/CB-D-week-loop.xlsx
+++ b/2022/CB-D-week-loop.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D18052-87AA-4557-8048-DB2248A932F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAA2009-CEA0-4D02-980D-A357BB24E1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="收益weekly" sheetId="6" r:id="rId1"/>
-    <sheet name="2期" sheetId="7" r:id="rId2"/>
-    <sheet name="1期" sheetId="2" r:id="rId3"/>
-    <sheet name="方案" sheetId="3" r:id="rId4"/>
+    <sheet name="3期 " sheetId="8" r:id="rId2"/>
+    <sheet name="2期" sheetId="7" r:id="rId3"/>
+    <sheet name="1期" sheetId="2" r:id="rId4"/>
+    <sheet name="方案" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="48">
   <si>
     <t>总计</t>
   </si>
@@ -112,80 +113,109 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>买</t>
+  </si>
+  <si>
+    <t>卖出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓天数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易费用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大秦转债</t>
+  </si>
+  <si>
+    <t>利群转债</t>
+  </si>
+  <si>
+    <t>东湖转债</t>
+  </si>
+  <si>
+    <t>搜特转债</t>
+  </si>
+  <si>
+    <t>绿茵转债</t>
+  </si>
+  <si>
+    <t>塞力转债</t>
+  </si>
+  <si>
+    <t>海环转债</t>
+  </si>
+  <si>
+    <t>东湖转债</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖广转债</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪榕转债</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文科转债</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>科华转债</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>华源转债</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3支没有出</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>龙净转债</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>铁汉转债</t>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>长集转债</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>华源转债</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>买</t>
-  </si>
-  <si>
-    <t>卖出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>持仓天数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易费用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>岩土转债</t>
-  </si>
-  <si>
-    <t>大秦转债</t>
-  </si>
-  <si>
-    <t>利群转债</t>
-  </si>
-  <si>
-    <t>东湖转债</t>
-  </si>
-  <si>
-    <t>搜特转债</t>
-  </si>
-  <si>
-    <t>绿茵转债</t>
-  </si>
-  <si>
-    <t>塞力转债</t>
-  </si>
-  <si>
-    <t>海环转债</t>
-  </si>
-  <si>
-    <t>东湖转债</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>海澜转债</t>
+  </si>
+  <si>
+    <t>国城转债</t>
   </si>
   <si>
     <t>文科转债</t>
   </si>
   <si>
-    <t>华源转债</t>
+    <t>敖东转债</t>
+  </si>
+  <si>
+    <t>华安转债</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +301,38 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,18 +359,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0F0F6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFBEC88"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -323,19 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -691,7 +733,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -703,81 +744,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -788,38 +793,27 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,120 +823,175 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1008,43 +1057,30 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1245,10 +1281,7 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>44555</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44561</c:v>
+                  <c:v>44577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1260,10 +1293,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.98</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1391,10 +1421,7 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>44555</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44561</c:v>
+                  <c:v>44577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1520,7 +1547,6 @@
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
         <c:majorUnit val="7"/>
-        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="631566527"/>
@@ -2231,23 +2257,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>719666</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>85199</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>962106</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>73738</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD4EC21-9DD5-4F53-87B2-D47F5360A677}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,8 +2289,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1762125" y="133350"/>
-          <a:ext cx="4209524" cy="5076190"/>
+          <a:off x="2857499" y="3905250"/>
+          <a:ext cx="7809524" cy="2761905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2576,7 +2602,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2599,133 +2625,132 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34">
-        <v>44555</v>
+      <c r="A2" s="32">
+        <v>44577</v>
       </c>
       <c r="B2" s="20">
-        <v>116</v>
-      </c>
-      <c r="C2" s="35">
-        <v>0</v>
+        <v>94.16</v>
+      </c>
+      <c r="C2" s="33">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
-        <v>44561</v>
-      </c>
-      <c r="B3" s="20">
-        <v>30.98</v>
-      </c>
-      <c r="C3" s="35">
+      <c r="A3" s="32"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="20">
         <v>0</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="20">
         <v>0</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="20">
         <v>0</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="20">
         <v>0</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="20">
         <v>0</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="20">
         <v>0</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="20">
         <v>0</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="20">
         <v>0</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="20">
         <v>0</v>
       </c>
-      <c r="C12" s="35">
-        <v>0</v>
-      </c>
-      <c r="D12" s="60"/>
+      <c r="C12" s="33">
+        <v>0</v>
+      </c>
+      <c r="D12" s="48"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="20">
         <v>0</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="20">
         <v>0</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="20">
         <v>0</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="33">
         <v>0</v>
       </c>
     </row>
@@ -2738,20 +2763,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5931A806-A1A8-411D-B836-CCA3F8001F21}">
-  <dimension ref="A1:R34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBB5B58-1401-4091-9A89-9497DD2510F5}">
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T26" sqref="T26"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1"/>
-    <col min="3" max="3" width="8" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="31"/>
+    <col min="3" max="3" width="8" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="30"/>
     <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="18"/>
     <col min="7" max="7" width="8.75" style="24"/>
@@ -2761,49 +2786,529 @@
     <col min="11" max="11" width="8.5" style="14" customWidth="1"/>
     <col min="12" max="12" width="5.25" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="71" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="71" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="56" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="56" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="56" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.75" style="19"/>
+    <col min="20" max="16384" width="8.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="111"/>
+      <c r="B1" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="112"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="124"/>
+    </row>
+    <row r="3" spans="1:23" s="74" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64">
+        <v>1</v>
+      </c>
+      <c r="C3" s="65">
+        <v>128100</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67">
+        <v>10</v>
+      </c>
+      <c r="G3" s="68"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="70"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="71" t="e">
+        <f>(K3-G3)/G3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" s="67">
+        <f>((K3-G3)*L3)-M3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="72">
+        <f>J3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="73"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="76"/>
+    </row>
+    <row r="4" spans="1:23" s="76" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64">
+        <v>2</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="69">
+        <v>10</v>
+      </c>
+      <c r="G4" s="77"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="70"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="71" t="e">
+        <f t="shared" ref="N4:N8" si="0">(K4-G4)/G4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" s="67">
+        <f t="shared" ref="O4:O8" si="1">((K4-G4)*L4)-M4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="72">
+        <f t="shared" ref="P4:P8" si="2">J4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="78"/>
+      <c r="S4" s="75"/>
+      <c r="W4" s="79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="76" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="63"/>
+      <c r="B5" s="64">
+        <v>3</v>
+      </c>
+      <c r="C5" s="37">
+        <v>127034</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="66"/>
+      <c r="F5" s="69">
+        <v>10</v>
+      </c>
+      <c r="G5" s="77"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="70"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="71" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="78"/>
+      <c r="S5" s="75"/>
+    </row>
+    <row r="6" spans="1:23" s="76" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="63"/>
+      <c r="B6" s="64">
+        <v>4</v>
+      </c>
+      <c r="C6" s="65">
+        <v>113044</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="66"/>
+      <c r="F6" s="69">
+        <v>10</v>
+      </c>
+      <c r="G6" s="80"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="70"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="71" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O6" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="78"/>
+      <c r="S6" s="75"/>
+    </row>
+    <row r="7" spans="1:23" s="76" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="63"/>
+      <c r="B7" s="64">
+        <v>5</v>
+      </c>
+      <c r="C7" s="65">
+        <v>127019</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="F7" s="69">
+        <v>10</v>
+      </c>
+      <c r="G7" s="77"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="70"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="71" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O7" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="78"/>
+      <c r="S7" s="75"/>
+      <c r="W7" s="76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="76" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="63"/>
+      <c r="B8" s="64">
+        <v>6</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="69">
+        <v>10</v>
+      </c>
+      <c r="G8" s="77"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="70"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="71" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="78"/>
+      <c r="S8" s="75"/>
+    </row>
+    <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="65">
+        <v>110045</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="66"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="7"/>
+      <c r="S9" s="27"/>
+    </row>
+    <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="17">
+        <f>SUM(H3:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="26">
+        <f>SUM(M3:M9)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="52" t="e">
+        <f>(O10)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O10" s="54">
+        <f>SUM(O3:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="10"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="37">
+        <v>128127</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="37">
+        <v>127006</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="37">
+        <v>110067</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="38"/>
+    </row>
+    <row r="18" spans="3:14" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C18" s="47"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N19" s="56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C29" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="N3:O8 N9:N10">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I8" xr:uid="{DD213AD5-4445-4C57-A56C-6FDBEACA4701}">
+      <formula1>"清,买,中"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" display="https://www.jisilu.cn/data/convert_bond_detail/127019" xr:uid="{7E8BE804-36C4-4E54-8242-621DFBF92AC2}"/>
+    <hyperlink ref="C9" r:id="rId2" display="https://www.jisilu.cn/data/convert_bond_detail/110045" xr:uid="{DF761325-DA3D-45AC-8493-4002115256D5}"/>
+    <hyperlink ref="C6" r:id="rId3" display="https://www.jisilu.cn/data/convert_bond_detail/113044" xr:uid="{874B1D63-0AC4-4E0C-A9BD-60F88D991EFC}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://www.jisilu.cn/data/convert_bond_detail/127034" xr:uid="{325BD4D0-E431-4A23-8AEC-62E1210E0396}"/>
+    <hyperlink ref="C12" r:id="rId5" display="https://www.jisilu.cn/data/convert_bond_detail/128127" xr:uid="{5CA675ED-E190-426F-8FE3-3D3D0BA871C1}"/>
+    <hyperlink ref="C13" r:id="rId6" display="https://www.jisilu.cn/data/convert_bond_detail/127006" xr:uid="{4FBA5DA3-7B87-4EA2-98FF-9ABF54BADDE9}"/>
+    <hyperlink ref="C14" r:id="rId7" display="https://www.jisilu.cn/data/convert_bond_detail/110067" xr:uid="{2369B92B-B371-423B-A381-22AC0AD3CBD6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5931A806-A1A8-411D-B836-CCA3F8001F21}">
+  <dimension ref="A1:R33"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T24" sqref="T24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1"/>
+    <col min="3" max="3" width="8" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="30"/>
+    <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="18"/>
+    <col min="7" max="7" width="8.75" style="24"/>
+    <col min="8" max="8" width="8.75" style="18"/>
+    <col min="9" max="9" width="5.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="5.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="56" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="56" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="56" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="1" customWidth="1"/>
     <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109"/>
-      <c r="B1" s="111" t="s">
+      <c r="A1" s="111"/>
+      <c r="B1" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="118" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="107" t="s">
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="109" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -2821,477 +3326,489 @@
         <v>15</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="108"/>
-    </row>
-    <row r="3" spans="1:18" s="49" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="123"/>
-      <c r="B3" s="124">
+      <c r="P2" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="110"/>
+    </row>
+    <row r="3" spans="1:18" s="91" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82">
         <v>1</v>
       </c>
-      <c r="C3" s="125">
-        <v>128037</v>
-      </c>
-      <c r="D3" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="127">
-        <v>44557</v>
-      </c>
-      <c r="F3" s="50">
+      <c r="C3" s="83">
+        <v>113044</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="85">
+        <v>44606</v>
+      </c>
+      <c r="F3" s="86">
         <v>10</v>
       </c>
-      <c r="G3" s="51">
-        <v>113.89</v>
-      </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="128">
-        <v>44561</v>
-      </c>
-      <c r="K3" s="50">
-        <v>115.248</v>
-      </c>
-      <c r="L3" s="50">
+      <c r="G3" s="87">
+        <v>114.67</v>
+      </c>
+      <c r="H3" s="88"/>
+      <c r="I3" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="96"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89">
+        <f t="shared" ref="N3:N9" si="0">(K3-G3)/G3</f>
+        <v>-1</v>
+      </c>
+      <c r="O3" s="88">
+        <f t="shared" ref="O3:O9" si="1">((K3-G3)*L3)-M3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="125">
+        <f>J3-E3</f>
+        <v>-44606</v>
+      </c>
+      <c r="Q3" s="90"/>
+    </row>
+    <row r="4" spans="1:18" s="91" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81"/>
+      <c r="B4" s="82">
+        <v>3</v>
+      </c>
+      <c r="C4" s="84">
+        <v>110068</v>
+      </c>
+      <c r="D4" s="97" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="85">
+        <v>44606</v>
+      </c>
+      <c r="F4" s="86">
         <v>10</v>
       </c>
-      <c r="M3" s="52">
-        <v>0.4</v>
-      </c>
-      <c r="N3" s="129">
-        <f t="shared" ref="N3:N10" si="0">(K3-G3)/G3</f>
-        <v>1.1923786109403846E-2</v>
-      </c>
-      <c r="O3" s="52">
-        <f t="shared" ref="O3:O10" si="1">((K3-G3)*L3)-M3</f>
-        <v>13.180000000000041</v>
-      </c>
-      <c r="P3" s="130">
-        <f t="shared" ref="P3" si="2">J3-E3</f>
+      <c r="G4" s="87">
+        <v>113.11</v>
+      </c>
+      <c r="H4" s="88"/>
+      <c r="I4" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="96">
+        <v>44620</v>
+      </c>
+      <c r="K4" s="86">
+        <v>119.16</v>
+      </c>
+      <c r="L4" s="86">
+        <v>10</v>
+      </c>
+      <c r="M4" s="88">
+        <v>0.2</v>
+      </c>
+      <c r="N4" s="89">
+        <f t="shared" si="0"/>
+        <v>5.3487755282468366E-2</v>
+      </c>
+      <c r="O4" s="88">
+        <f t="shared" si="1"/>
+        <v>60.299999999999969</v>
+      </c>
+      <c r="P4" s="125">
+        <f t="shared" ref="P4:P15" si="2">J4-E4</f>
+        <v>14</v>
+      </c>
+      <c r="Q4" s="90"/>
+    </row>
+    <row r="5" spans="1:18" s="91" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82">
         <v>4</v>
       </c>
-      <c r="Q3" s="53"/>
-    </row>
-    <row r="4" spans="1:18" s="49" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="123"/>
-      <c r="B4" s="124">
-        <v>2</v>
-      </c>
-      <c r="C4" s="125">
-        <v>113044</v>
-      </c>
-      <c r="D4" s="126" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="127">
-        <v>44557</v>
-      </c>
-      <c r="F4" s="50">
-        <v>10</v>
-      </c>
-      <c r="G4" s="51">
-        <v>108.11</v>
-      </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="128">
-        <v>44561</v>
-      </c>
-      <c r="K4" s="50">
-        <v>109.35</v>
-      </c>
-      <c r="L4" s="50">
-        <v>10</v>
-      </c>
-      <c r="M4" s="52">
-        <v>0.4</v>
-      </c>
-      <c r="N4" s="129">
-        <f t="shared" si="0"/>
-        <v>1.1469799278512579E-2</v>
-      </c>
-      <c r="O4" s="52">
-        <f t="shared" si="1"/>
-        <v>11.999999999999948</v>
-      </c>
-      <c r="P4" s="130">
-        <f>J4-E11</f>
-        <v>44561</v>
-      </c>
-      <c r="Q4" s="53"/>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="64">
-        <v>3</v>
-      </c>
-      <c r="C5" s="43">
-        <v>113033</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="67" t="e">
+      <c r="C5" s="83">
+        <v>110080</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="66">
+      <c r="O5" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P5" s="75">
-        <f>J5-E12</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="64">
-        <v>4</v>
-      </c>
-      <c r="C6" s="43">
-        <v>110080</v>
-      </c>
-      <c r="D6" s="131" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="73">
-        <v>44557</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="P5" s="125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="90"/>
+    </row>
+    <row r="6" spans="1:18" s="108" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="98"/>
+      <c r="B6" s="99">
+        <v>5</v>
+      </c>
+      <c r="C6" s="100">
+        <v>128100</v>
+      </c>
+      <c r="D6" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="102">
+        <v>44606</v>
+      </c>
+      <c r="F6" s="103">
         <v>10</v>
       </c>
-      <c r="G6" s="22">
-        <v>112.01</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12">
-        <v>112.05</v>
-      </c>
-      <c r="L6" s="12">
+      <c r="G6" s="104">
+        <v>104.46</v>
+      </c>
+      <c r="H6" s="105"/>
+      <c r="I6" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="106">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="O6" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="125">
+        <f t="shared" si="2"/>
+        <v>-44606</v>
+      </c>
+      <c r="Q6" s="107"/>
+    </row>
+    <row r="7" spans="1:18" s="91" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="81"/>
+      <c r="B7" s="82">
+        <v>6</v>
+      </c>
+      <c r="C7" s="83">
+        <v>127034</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="85">
+        <v>44606</v>
+      </c>
+      <c r="F7" s="86">
         <v>10</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="67">
+      <c r="G7" s="87">
+        <v>110.69</v>
+      </c>
+      <c r="H7" s="88"/>
+      <c r="I7" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="89">
         <f t="shared" si="0"/>
-        <v>3.5711097223455084E-4</v>
-      </c>
-      <c r="O6" s="66">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="88">
         <f t="shared" si="1"/>
-        <v>0.39999999999992042</v>
-      </c>
-      <c r="P6" s="75">
-        <f>J6-E13</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="64">
-        <v>5</v>
-      </c>
-      <c r="C7" s="43">
-        <v>128100</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="73">
-        <v>44557</v>
-      </c>
-      <c r="F7" s="16">
-        <v>10</v>
-      </c>
-      <c r="G7" s="22">
-        <v>109.17</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12">
-        <v>108.44</v>
-      </c>
-      <c r="L7" s="12">
-        <v>10</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="67">
-        <f t="shared" si="0"/>
-        <v>-6.6868187230924607E-3</v>
-      </c>
-      <c r="O7" s="66">
-        <f t="shared" si="1"/>
-        <v>-7.3000000000000398</v>
-      </c>
-      <c r="P7" s="75" t="e">
-        <f>J7-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="47"/>
-    </row>
-    <row r="8" spans="1:18" s="49" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="64">
-        <v>6</v>
-      </c>
-      <c r="C8" s="43">
-        <v>127034</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="73"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="125">
+        <f t="shared" si="2"/>
+        <v>-44606</v>
+      </c>
+      <c r="Q7" s="90"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="92">
+        <v>7</v>
+      </c>
+      <c r="C8" s="93">
+        <v>113601</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="58"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="67" t="e">
+      <c r="G8" s="22"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="52" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="66">
+      <c r="O8" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P8" s="75" t="e">
-        <f>J8-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="64">
-        <v>7</v>
-      </c>
-      <c r="C9" s="43">
-        <v>113601</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="67" t="e">
+      <c r="P8" s="125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="39"/>
+    </row>
+    <row r="9" spans="1:18" s="40" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="B9" s="92">
+        <v>8</v>
+      </c>
+      <c r="C9" s="93">
+        <v>113532</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="61"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="62" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="66">
+      <c r="O9" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P9" s="75">
-        <f>J9-E14</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="45"/>
-    </row>
-    <row r="10" spans="1:18" s="49" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123"/>
-      <c r="B10" s="124">
-        <v>8</v>
-      </c>
-      <c r="C10" s="125">
-        <v>113532</v>
-      </c>
-      <c r="D10" s="126" t="s">
+      <c r="P9" s="125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="44"/>
+    </row>
+    <row r="10" spans="1:18" s="91" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="82"/>
+      <c r="C10" s="83">
+        <v>128127</v>
+      </c>
+      <c r="D10" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="127">
-        <v>44558</v>
-      </c>
-      <c r="F10" s="50">
-        <v>10</v>
-      </c>
-      <c r="G10" s="51">
-        <v>110.51</v>
-      </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="128">
-        <v>44561</v>
-      </c>
-      <c r="K10" s="50">
-        <v>111.82</v>
-      </c>
-      <c r="L10" s="50">
-        <v>10</v>
-      </c>
-      <c r="M10" s="52">
-        <v>0.4</v>
-      </c>
-      <c r="N10" s="129">
-        <f t="shared" si="0"/>
-        <v>1.1854130847886961E-2</v>
-      </c>
-      <c r="O10" s="52">
-        <f t="shared" si="1"/>
-        <v>12.69999999999988</v>
-      </c>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="53"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="7"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="90"/>
+    </row>
+    <row r="11" spans="1:18" s="91" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="82"/>
+      <c r="C11" s="83">
+        <v>128124</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="90"/>
+    </row>
+    <row r="12" spans="1:18" s="91" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="82"/>
+      <c r="C12" s="83">
+        <v>128049</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="90"/>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="73"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="16"/>
       <c r="G13" s="22"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="I13" s="86" t="s">
+        <v>21</v>
+      </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="67"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="73"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="16"/>
       <c r="G14" s="22"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="I14" s="86" t="s">
+        <v>21</v>
+      </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="67"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="73"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="16"/>
       <c r="G15" s="22"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="I15" s="86" t="s">
+        <v>21</v>
+      </c>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="67"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="73"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="16"/>
       <c r="G16" s="22"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="I16" s="86" t="s">
+        <v>21</v>
+      </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="73"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="22"/>
       <c r="H17" s="16"/>
@@ -3300,82 +3817,64 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="16"/>
       <c r="G18" s="22"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="L18" s="28"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="5"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="17">
-        <f>SUM(H3:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="26">
-        <f>SUM(M3:M19)</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="N20" s="67" t="e">
-        <f>(O20)/#REF!</f>
+      <c r="G19" s="23"/>
+      <c r="H19" s="17">
+        <f>SUM(H3:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="26">
+        <f>SUM(M3:M18)</f>
+        <v>0.2</v>
+      </c>
+      <c r="N19" s="52" t="e">
+        <f>(O19)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="O20" s="69">
-        <f>SUM(O3:O19)</f>
-        <v>30.979999999999748</v>
-      </c>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="23" spans="1:17" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C23" s="59"/>
-    </row>
-    <row r="34" spans="3:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C34" s="33"/>
+      <c r="O19" s="54">
+        <f>SUM(O3:O18)</f>
+        <v>60.299999999999969</v>
+      </c>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="22" spans="2:17" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C22" s="47"/>
+    </row>
+    <row r="33" spans="3:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C33" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3388,49 +3887,49 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N11:N20 O11:O14 N3:O10">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="N10:N19 O10:O13 N3:O9">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I10" xr:uid="{300A2D70-BCD0-40E1-983F-866A4D05695D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I16" xr:uid="{300A2D70-BCD0-40E1-983F-866A4D05695D}">
       <formula1>"清,买,中"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://www.jisilu.cn/data/convert_bond_detail/128037" xr:uid="{48646958-1BF6-481C-B6C8-962FF94371AE}"/>
-    <hyperlink ref="C4" r:id="rId2" display="https://www.jisilu.cn/data/convert_bond_detail/113044" xr:uid="{13CFC3F6-648E-41A3-8DC7-15CD8EBA3F80}"/>
-    <hyperlink ref="C5" r:id="rId3" display="https://www.jisilu.cn/data/convert_bond_detail/113033" xr:uid="{F2BB8519-51ED-481A-A121-A6A37192EFB5}"/>
-    <hyperlink ref="C6" r:id="rId4" display="https://www.jisilu.cn/data/convert_bond_detail/110080" xr:uid="{1F31D035-6411-4AC0-8E1B-FF22C2BEB294}"/>
-    <hyperlink ref="C7" r:id="rId5" display="https://www.jisilu.cn/data/convert_bond_detail/128100" xr:uid="{AD026F30-85D8-49F1-949E-5A710E6508BA}"/>
-    <hyperlink ref="C8" r:id="rId6" display="https://www.jisilu.cn/data/convert_bond_detail/127034" xr:uid="{584A935A-52C5-4D6B-AB1F-72CF0318A1B8}"/>
-    <hyperlink ref="C9" r:id="rId7" display="https://www.jisilu.cn/data/convert_bond_detail/113601" xr:uid="{B4EBED84-E924-4F48-B05C-90B3D6F66DBC}"/>
-    <hyperlink ref="C10" r:id="rId8" display="https://www.jisilu.cn/data/convert_bond_detail/113532" xr:uid="{8A950C5C-75D4-400B-8E28-78D1D25A97DC}"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://www.jisilu.cn/data/convert_bond_detail/113044" xr:uid="{13CFC3F6-648E-41A3-8DC7-15CD8EBA3F80}"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://www.jisilu.cn/data/convert_bond_detail/113033" xr:uid="{F2BB8519-51ED-481A-A121-A6A37192EFB5}"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://www.jisilu.cn/data/convert_bond_detail/110080" xr:uid="{1F31D035-6411-4AC0-8E1B-FF22C2BEB294}"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://www.jisilu.cn/data/convert_bond_detail/128100" xr:uid="{AD026F30-85D8-49F1-949E-5A710E6508BA}"/>
+    <hyperlink ref="C7" r:id="rId5" display="https://www.jisilu.cn/data/convert_bond_detail/127034" xr:uid="{584A935A-52C5-4D6B-AB1F-72CF0318A1B8}"/>
+    <hyperlink ref="C8" r:id="rId6" display="https://www.jisilu.cn/data/convert_bond_detail/113601" xr:uid="{B4EBED84-E924-4F48-B05C-90B3D6F66DBC}"/>
+    <hyperlink ref="C9" r:id="rId7" display="https://www.jisilu.cn/data/convert_bond_detail/113532" xr:uid="{8A950C5C-75D4-400B-8E28-78D1D25A97DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1"/>
-    <col min="3" max="3" width="8" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="31"/>
+    <col min="3" max="3" width="8" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="30"/>
     <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="18"/>
     <col min="7" max="7" width="8.75" style="24"/>
@@ -3440,53 +3939,53 @@
     <col min="11" max="11" width="8.5" style="14" customWidth="1"/>
     <col min="12" max="12" width="5.25" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="71" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="71" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="56" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="56" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="56" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="12" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.75" style="19"/>
     <col min="20" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109"/>
-      <c r="B1" s="111" t="s">
+      <c r="A1" s="111"/>
+      <c r="B1" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="118" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="107" t="s">
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="121" t="s">
+      <c r="S1" s="123" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -3504,1126 +4003,412 @@
         <v>15</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="108"/>
+      <c r="P2" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="110"/>
       <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="122"/>
-    </row>
-    <row r="3" spans="1:23" s="87" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77">
+      <c r="S2" s="124"/>
+    </row>
+    <row r="3" spans="1:23" s="74" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64">
         <v>1</v>
       </c>
-      <c r="C3" s="78">
+      <c r="C3" s="65">
         <v>128100</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="79">
-        <v>44550</v>
-      </c>
-      <c r="F3" s="80">
+      <c r="E3" s="66">
+        <v>44571</v>
+      </c>
+      <c r="F3" s="67">
         <v>10</v>
       </c>
-      <c r="G3" s="81">
-        <v>107.02</v>
-      </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="83">
-        <v>44550</v>
-      </c>
-      <c r="K3" s="82">
-        <v>109.563</v>
-      </c>
-      <c r="L3" s="80">
+      <c r="G3" s="68">
+        <v>111.988</v>
+      </c>
+      <c r="H3" s="67"/>
+      <c r="I3" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="70">
+        <v>44574</v>
+      </c>
+      <c r="K3" s="69">
+        <v>114.14</v>
+      </c>
+      <c r="L3" s="67">
         <v>10</v>
       </c>
-      <c r="M3" s="80">
-        <v>0.4</v>
-      </c>
-      <c r="N3" s="84">
+      <c r="M3" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="N3" s="71">
         <f>(K3-G3)/G3</f>
-        <v>2.3761913660998005E-2</v>
-      </c>
-      <c r="O3" s="80">
+        <v>1.9216344608350904E-2</v>
+      </c>
+      <c r="O3" s="67">
         <f>((K3-G3)*L3)-M3</f>
-        <v>25.030000000000065</v>
-      </c>
-      <c r="P3" s="85">
+        <v>21.320000000000011</v>
+      </c>
+      <c r="P3" s="72">
         <f>J3-E3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="86"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="89"/>
-    </row>
-    <row r="4" spans="1:23" s="62" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="73"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="76"/>
+    </row>
+    <row r="4" spans="1:23" s="76" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64">
         <v>2</v>
       </c>
-      <c r="C4" s="96">
-        <v>110068</v>
-      </c>
-      <c r="D4" s="96" t="s">
+      <c r="C4" s="37">
+        <v>113033</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="66">
+        <v>44571</v>
+      </c>
+      <c r="F4" s="69">
+        <v>10</v>
+      </c>
+      <c r="G4" s="77">
+        <v>113.68</v>
+      </c>
+      <c r="H4" s="67"/>
+      <c r="I4" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="97">
-        <v>44550</v>
-      </c>
-      <c r="F4" s="98">
+      <c r="J4" s="70"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="N4" s="71">
+        <f t="shared" ref="N4:N8" si="0">(K4-G4)/G4</f>
+        <v>-1</v>
+      </c>
+      <c r="O4" s="67">
+        <f t="shared" ref="O4:O5" si="1">((K4-G4)*L4)-M4</f>
+        <v>-0.2</v>
+      </c>
+      <c r="P4" s="72">
+        <f t="shared" ref="P4:P8" si="2">J4-E4</f>
+        <v>-44571</v>
+      </c>
+      <c r="Q4" s="78"/>
+      <c r="S4" s="75"/>
+      <c r="W4" s="79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="76" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="63"/>
+      <c r="B5" s="64">
+        <v>3</v>
+      </c>
+      <c r="C5" s="37">
+        <v>110080</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="66">
+        <v>44571</v>
+      </c>
+      <c r="F5" s="69">
         <v>10</v>
       </c>
-      <c r="G4" s="99">
-        <v>108.08</v>
-      </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="101">
-        <v>44560</v>
-      </c>
-      <c r="K4" s="98">
-        <v>110.92</v>
-      </c>
-      <c r="L4" s="98">
+      <c r="G5" s="77">
+        <v>114.4</v>
+      </c>
+      <c r="H5" s="67"/>
+      <c r="I5" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="70">
+        <v>44606</v>
+      </c>
+      <c r="K5" s="76">
+        <v>117.45</v>
+      </c>
+      <c r="L5" s="69">
         <v>10</v>
       </c>
-      <c r="M4" s="100">
-        <v>0.4</v>
-      </c>
-      <c r="N4" s="102">
-        <f t="shared" ref="N4:N15" si="0">(K4-G4)/G4</f>
-        <v>2.6276831976313874E-2</v>
-      </c>
-      <c r="O4" s="100">
-        <f t="shared" ref="O4:O5" si="1">((K4-G4)*L4)-M4</f>
-        <v>28.000000000000036</v>
-      </c>
-      <c r="P4" s="103">
-        <f t="shared" ref="P4:P20" si="2">J4-E4</f>
+      <c r="M5" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="N5" s="71">
+        <f t="shared" si="0"/>
+        <v>2.6660839160839136E-2</v>
+      </c>
+      <c r="O5" s="67">
+        <f t="shared" si="1"/>
+        <v>30.299999999999972</v>
+      </c>
+      <c r="P5" s="72">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="Q5" s="78"/>
+      <c r="S5" s="75"/>
+    </row>
+    <row r="6" spans="1:23" s="76" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="63"/>
+      <c r="B6" s="64">
+        <v>4</v>
+      </c>
+      <c r="C6" s="37">
+        <v>113044</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="66">
+        <v>44571</v>
+      </c>
+      <c r="F6" s="69">
         <v>10</v>
       </c>
-      <c r="Q4" s="104"/>
-      <c r="S4" s="105"/>
-      <c r="W4" s="106" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77">
-        <v>3</v>
-      </c>
-      <c r="C5" s="78">
-        <v>123004</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="79">
-        <v>44550</v>
-      </c>
-      <c r="F5" s="82">
+      <c r="G6" s="80">
+        <v>111.01</v>
+      </c>
+      <c r="H6" s="67"/>
+      <c r="I6" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="70">
+        <v>44600</v>
+      </c>
+      <c r="K6" s="69">
+        <v>113.32</v>
+      </c>
+      <c r="L6" s="69">
         <v>10</v>
       </c>
-      <c r="G5" s="93">
-        <v>107.83</v>
-      </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="83">
-        <v>44561</v>
-      </c>
-      <c r="K5" s="89">
-        <v>109.47</v>
-      </c>
-      <c r="L5" s="82">
+      <c r="M6" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="N6" s="71">
+        <f t="shared" si="0"/>
+        <v>2.0808936131879903E-2</v>
+      </c>
+      <c r="O6" s="67">
+        <f t="shared" ref="O6:O8" si="3">((K6-G6)*L6)-M6</f>
+        <v>22.899999999999881</v>
+      </c>
+      <c r="P6" s="72">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="Q6" s="78"/>
+      <c r="S6" s="75"/>
+    </row>
+    <row r="7" spans="1:23" s="76" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="63"/>
+      <c r="B7" s="64">
+        <v>5</v>
+      </c>
+      <c r="C7" s="65">
+        <v>127007</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="66">
+        <v>44571</v>
+      </c>
+      <c r="F7" s="69">
         <v>10</v>
       </c>
-      <c r="M5" s="100">
-        <v>0.4</v>
-      </c>
-      <c r="N5" s="84">
+      <c r="G7" s="77">
+        <v>148.06</v>
+      </c>
+      <c r="H7" s="67"/>
+      <c r="I7" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="70">
+        <v>44572</v>
+      </c>
+      <c r="K7" s="69">
+        <v>153.75</v>
+      </c>
+      <c r="L7" s="69">
+        <v>10</v>
+      </c>
+      <c r="M7" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="N7" s="71">
         <f t="shared" si="0"/>
-        <v>1.5209125475285176E-2</v>
-      </c>
-      <c r="O5" s="80">
-        <f t="shared" si="1"/>
-        <v>16.000000000000007</v>
-      </c>
-      <c r="P5" s="85">
+        <v>3.8430366067810334E-2</v>
+      </c>
+      <c r="O7" s="67">
+        <f t="shared" si="3"/>
+        <v>56.699999999999974</v>
+      </c>
+      <c r="P7" s="72">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="Q5" s="92"/>
-      <c r="S5" s="88"/>
-    </row>
-    <row r="6" spans="1:23" s="89" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77">
-        <v>4</v>
-      </c>
-      <c r="C6" s="90">
-        <v>128105</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="79">
-        <v>44550</v>
-      </c>
-      <c r="F6" s="82">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="78"/>
+      <c r="S7" s="75"/>
+      <c r="W7" s="76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="76" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="63"/>
+      <c r="B8" s="64">
+        <v>6</v>
+      </c>
+      <c r="C8" s="65">
+        <v>23056</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="66">
+        <v>44572</v>
+      </c>
+      <c r="F8" s="69">
         <v>10</v>
       </c>
-      <c r="G6" s="91">
-        <v>109.22199999999999</v>
-      </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="83">
-        <v>44553</v>
-      </c>
-      <c r="K6" s="82">
-        <v>111.79</v>
-      </c>
-      <c r="L6" s="82">
+      <c r="G8" s="77">
+        <v>115.011</v>
+      </c>
+      <c r="H8" s="67"/>
+      <c r="I8" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="70">
+        <v>44573</v>
+      </c>
+      <c r="K8" s="69">
+        <v>116.705</v>
+      </c>
+      <c r="L8" s="69">
         <v>10</v>
       </c>
-      <c r="M6" s="100">
-        <v>0.4</v>
-      </c>
-      <c r="N6" s="84">
+      <c r="M8" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="N8" s="71">
         <f t="shared" si="0"/>
-        <v>2.3511746717694348E-2</v>
-      </c>
-      <c r="O6" s="80">
-        <f t="shared" ref="O6:O16" si="3">((K6-G6)*L6)-M6</f>
-        <v>25.280000000000122</v>
-      </c>
-      <c r="P6" s="85">
+        <v>1.472902591925992E-2</v>
+      </c>
+      <c r="O8" s="67">
+        <f t="shared" si="3"/>
+        <v>16.740000000000027</v>
+      </c>
+      <c r="P8" s="72">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Q6" s="92"/>
-      <c r="S6" s="88"/>
-    </row>
-    <row r="7" spans="1:23" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="76"/>
-      <c r="B7" s="77">
-        <v>5</v>
-      </c>
-      <c r="C7" s="78">
-        <v>128049</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="79">
-        <v>44550</v>
-      </c>
-      <c r="F7" s="82">
-        <v>10</v>
-      </c>
-      <c r="G7" s="93">
-        <v>110.83199999999999</v>
-      </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83">
-        <v>44553</v>
-      </c>
-      <c r="K7" s="82">
-        <v>113.04300000000001</v>
-      </c>
-      <c r="L7" s="82">
-        <v>10</v>
-      </c>
-      <c r="M7" s="80">
-        <v>0.4</v>
-      </c>
-      <c r="N7" s="84">
-        <f t="shared" si="0"/>
-        <v>1.9949112169770581E-2</v>
-      </c>
-      <c r="O7" s="80">
-        <f t="shared" si="3"/>
-        <v>21.710000000000129</v>
-      </c>
-      <c r="P7" s="85">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Q7" s="92"/>
-      <c r="S7" s="88"/>
-      <c r="W7" s="89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="55">
-        <v>6</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="67" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7"/>
-      <c r="S8" s="28"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="55">
-        <v>7</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="78"/>
+      <c r="S8" s="75"/>
+    </row>
+    <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="16"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="15"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="67" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="28"/>
-    </row>
-    <row r="10" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="55">
-        <v>8</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="67" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7"/>
-      <c r="S10" s="28"/>
-    </row>
-    <row r="11" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="55">
-        <v>9</v>
-      </c>
-      <c r="C11" s="43">
-        <v>128127</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="44">
-        <v>112.79900000000001</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="67" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O11" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="75">
-        <f t="shared" si="2"/>
-        <v>-112.79900000000001</v>
-      </c>
-      <c r="Q11" s="7"/>
-      <c r="S11" s="28"/>
-    </row>
-    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="55">
-        <v>10</v>
-      </c>
-      <c r="C12" s="43">
-        <v>113033</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="44">
-        <v>111</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="67" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="75">
-        <f t="shared" si="2"/>
-        <v>-111</v>
-      </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="47"/>
-    </row>
-    <row r="13" spans="1:23" s="49" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="55">
-        <v>11</v>
-      </c>
-      <c r="C13" s="43">
-        <v>128100</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="44">
-        <v>108.44</v>
-      </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="67" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="75">
-        <f t="shared" si="2"/>
-        <v>-108.44</v>
-      </c>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="55">
-        <v>12</v>
-      </c>
-      <c r="C14" s="43">
-        <v>113044</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="44">
-        <v>109.46</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="67" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="75">
-        <f t="shared" si="2"/>
-        <v>-109.46</v>
-      </c>
-      <c r="Q14" s="7"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="45"/>
-    </row>
-    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="55">
-        <v>13</v>
-      </c>
-      <c r="C15" s="43">
-        <v>110080</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="44">
-        <v>112.05</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="67" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O15" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="75">
-        <f t="shared" si="2"/>
-        <v>-112.05</v>
-      </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="28"/>
-    </row>
-    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="55">
-        <v>14</v>
-      </c>
-      <c r="C16" s="43">
-        <v>113601</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="44">
-        <v>112.37</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="67" t="e">
-        <f t="shared" ref="N16:N20" si="4">(K16-G16)/G16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="75">
-        <f t="shared" si="2"/>
-        <v>-112.37</v>
-      </c>
-      <c r="Q16" s="7"/>
-      <c r="S16" s="28"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="55">
-        <v>15</v>
-      </c>
-      <c r="C17" s="43">
-        <v>127034</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="44">
-        <v>106.97</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="67" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" s="66">
-        <f t="shared" ref="O17:O20" si="5">(K17-G17)*L17</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="75">
-        <f t="shared" si="2"/>
-        <v>-106.97</v>
-      </c>
-      <c r="Q17" s="7"/>
-      <c r="S17" s="28"/>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="55">
-        <v>16</v>
-      </c>
-      <c r="C18" s="43">
-        <v>128049</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="44">
-        <v>113.399</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="67" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="75">
-        <f t="shared" si="2"/>
-        <v>-113.399</v>
-      </c>
-      <c r="Q18" s="7"/>
-      <c r="S18" s="28"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="55">
-        <v>17</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="67" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="7"/>
-      <c r="S19" s="28"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="55">
-        <v>18</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="67" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="7"/>
-      <c r="S20" s="28"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="7"/>
-      <c r="S21" s="28"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="55">
-        <v>37</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="7"/>
-      <c r="S22" s="28"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="55">
-        <v>38</v>
-      </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="7"/>
-      <c r="S23" s="28"/>
-    </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="55">
-        <v>39</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="7"/>
-      <c r="S24" s="28"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="7"/>
-      <c r="S25" s="28"/>
-    </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="7"/>
-      <c r="S26" s="28"/>
-    </row>
-    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="7"/>
-      <c r="S27" s="28"/>
-    </row>
-    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="7"/>
-      <c r="S28" s="28"/>
-    </row>
-    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="7"/>
-      <c r="S29" s="28"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="7"/>
-      <c r="S30" s="28"/>
-    </row>
-    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="7"/>
-      <c r="S31" s="28"/>
-    </row>
-    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="7"/>
-      <c r="S32" s="28"/>
-    </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="7"/>
-      <c r="S33" s="28"/>
-    </row>
-    <row r="34" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="7"/>
-      <c r="S34" s="28"/>
-    </row>
-    <row r="35" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="7"/>
-      <c r="S35" s="28"/>
-    </row>
-    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="5"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="68"/>
-      <c r="Q36" s="7"/>
-      <c r="S36" s="28"/>
-    </row>
-    <row r="37" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="7"/>
-      <c r="S37" s="28"/>
-    </row>
-    <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="17">
-        <f>SUM(H3:H20)</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="17"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="26">
-        <f>SUM(M3:M37)</f>
-        <v>2</v>
-      </c>
-      <c r="N38" s="67" t="e">
-        <f>(O38)/#REF!</f>
+      <c r="S9" s="27"/>
+    </row>
+    <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="17">
+        <f>SUM(H3:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="26">
+        <f>SUM(M3:M9)</f>
+        <v>1.2</v>
+      </c>
+      <c r="N10" s="52" t="e">
+        <f>(O10)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="O38" s="69">
-        <f>SUM(O3:O10)</f>
-        <v>116.02000000000035</v>
-      </c>
-      <c r="P38" s="70"/>
-      <c r="Q38" s="10"/>
-      <c r="S38" s="25"/>
-    </row>
-    <row r="41" spans="1:19" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C41" s="33"/>
-    </row>
-    <row r="42" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="43"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="44"/>
-    </row>
-    <row r="46" spans="1:19" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C46" s="59"/>
-    </row>
-    <row r="57" spans="3:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C57" s="33"/>
+      <c r="O10" s="54">
+        <f>SUM(O3:O8)</f>
+        <v>147.75999999999988</v>
+      </c>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="10"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="13" spans="1:23" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="38"/>
+    </row>
+    <row r="18" spans="3:14" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C18" s="47"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N19" s="56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C29" s="31"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:Q20">
-    <sortCondition ref="B3:B20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:Q8">
+    <sortCondition ref="B3:B8"/>
   </sortState>
   <mergeCells count="8">
     <mergeCell ref="S1:S2"/>
@@ -4636,40 +4421,35 @@
     <mergeCell ref="E1:I1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N27:N38 O27:O32 N3:O26">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="N3:O8 N9:N10">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I26" xr:uid="{DCE927E3-C8F5-4EBD-B4AD-D48AD216AA54}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I8" xr:uid="{DCE927E3-C8F5-4EBD-B4AD-D48AD216AA54}">
       <formula1>"清,买,中"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" display="https://www.jisilu.cn/data/convert_bond_detail/128127" xr:uid="{F775A8FA-0761-4703-9405-6A882E77690F}"/>
-    <hyperlink ref="C12" r:id="rId2" display="https://www.jisilu.cn/data/convert_bond_detail/113033" xr:uid="{E5A6F8E1-3718-4F65-BD5D-DB9151494EE9}"/>
-    <hyperlink ref="C13" r:id="rId3" display="https://www.jisilu.cn/data/convert_bond_detail/128100" xr:uid="{55CF12B9-C611-4A9B-BE1E-5ED712A72912}"/>
-    <hyperlink ref="C14" r:id="rId4" display="https://www.jisilu.cn/data/convert_bond_detail/113044" xr:uid="{F0A4398B-3D40-46BD-858C-B4C796568CC2}"/>
-    <hyperlink ref="C15" r:id="rId5" display="https://www.jisilu.cn/data/convert_bond_detail/110080" xr:uid="{D6F7D318-FB89-4A2B-B032-8354BF7C372E}"/>
-    <hyperlink ref="C16" r:id="rId6" display="https://www.jisilu.cn/data/convert_bond_detail/113601" xr:uid="{D9C0E75B-7ACE-4984-80CB-F3ACD51BB5FC}"/>
-    <hyperlink ref="C17" r:id="rId7" display="https://www.jisilu.cn/data/convert_bond_detail/127034" xr:uid="{7CACD813-80EE-4BF5-8468-FEBA4DED908C}"/>
-    <hyperlink ref="C18" r:id="rId8" display="https://www.jisilu.cn/data/convert_bond_detail/128049" xr:uid="{7BA098E8-A9D2-48E3-AB09-F66599665D63}"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://www.jisilu.cn/data/convert_bond_detail/110080" xr:uid="{733FD4C5-2962-4946-AABA-7414E460EC0D}"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://www.jisilu.cn/data/convert_bond_detail/113033" xr:uid="{5E84D123-069C-4164-A663-8ECFEE06E0FC}"/>
+    <hyperlink ref="C6" r:id="rId3" display="https://www.jisilu.cn/data/convert_bond_detail/113044" xr:uid="{378A343D-C9B1-4475-B260-3ECF2856F3A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B1329E-1337-4138-9A17-3602309B5170}">
   <dimension ref="D3:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4691,6 +4471,5 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2022/CB-D-week-loop.xlsx
+++ b/2022/CB-D-week-loop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAA2009-CEA0-4D02-980D-A357BB24E1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B61D939-D7D4-4252-8DAE-E1790D458B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="48">
   <si>
     <t>总计</t>
   </si>
@@ -983,21 +983,29 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1049,17 +1057,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="14" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2253,55 +2252,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>719666</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>137583</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>962106</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>73738</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD4EC21-9DD5-4F53-87B2-D47F5360A677}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2857499" y="3905250"/>
-          <a:ext cx="7809524" cy="2761905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -2768,7 +2718,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2795,44 +2745,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111"/>
-      <c r="B1" s="113" t="s">
+      <c r="A1" s="113"/>
+      <c r="B1" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="120" t="s">
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="122"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="124"/>
       <c r="N1" s="50"/>
       <c r="O1" s="50"/>
       <c r="P1" s="50"/>
       <c r="Q1" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="123" t="s">
+      <c r="S1" s="111" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="112"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -2871,7 +2821,7 @@
       <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="124"/>
+      <c r="S2" s="112"/>
     </row>
     <row r="3" spans="1:23" s="74" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="63"/>
@@ -2918,13 +2868,21 @@
       <c r="B4" s="64">
         <v>2</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="66"/>
+      <c r="C4" s="24">
+        <v>110067</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="66">
+        <v>44622</v>
+      </c>
       <c r="F4" s="69">
         <v>10</v>
       </c>
-      <c r="G4" s="77"/>
+      <c r="G4" s="77">
+        <v>112.11</v>
+      </c>
       <c r="H4" s="67"/>
       <c r="I4" s="69" t="s">
         <v>21</v>
@@ -2933,17 +2891,17 @@
       <c r="K4" s="69"/>
       <c r="L4" s="69"/>
       <c r="M4" s="67"/>
-      <c r="N4" s="71" t="e">
-        <f t="shared" ref="N4:N8" si="0">(K4-G4)/G4</f>
-        <v>#DIV/0!</v>
+      <c r="N4" s="71">
+        <f t="shared" ref="N4:N9" si="0">(K4-G4)/G4</f>
+        <v>-1</v>
       </c>
       <c r="O4" s="67">
-        <f t="shared" ref="O4:O8" si="1">((K4-G4)*L4)-M4</f>
+        <f t="shared" ref="O4:O9" si="1">((K4-G4)*L4)-M4</f>
         <v>0</v>
       </c>
       <c r="P4" s="72">
         <f t="shared" ref="P4:P8" si="2">J4-E4</f>
-        <v>0</v>
+        <v>-44622</v>
       </c>
       <c r="Q4" s="78"/>
       <c r="S4" s="75"/>
@@ -3076,12 +3034,18 @@
         <v>6</v>
       </c>
       <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
+      <c r="D8" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="66">
+        <v>44622</v>
+      </c>
       <c r="F8" s="69">
         <v>10</v>
       </c>
-      <c r="G8" s="77"/>
+      <c r="G8" s="77">
+        <v>112.715</v>
+      </c>
       <c r="H8" s="67"/>
       <c r="I8" s="69" t="s">
         <v>36</v>
@@ -3090,9 +3054,9 @@
       <c r="K8" s="69"/>
       <c r="L8" s="69"/>
       <c r="M8" s="67"/>
-      <c r="N8" s="71" t="e">
+      <c r="N8" s="71">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="O8" s="67">
         <f t="shared" si="1"/>
@@ -3100,7 +3064,7 @@
       </c>
       <c r="P8" s="72">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-44622</v>
       </c>
       <c r="Q8" s="78"/>
       <c r="S8" s="75"/>
@@ -3113,17 +3077,29 @@
       <c r="D9" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="22"/>
+      <c r="E9" s="66">
+        <v>44633</v>
+      </c>
+      <c r="F9" s="16">
+        <v>10</v>
+      </c>
+      <c r="G9" s="22">
+        <v>114.11</v>
+      </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="28"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="53"/>
+      <c r="N9" s="71">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="O9" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="P9" s="53"/>
       <c r="Q9" s="7"/>
       <c r="S9" s="27"/>
@@ -3215,11 +3191,11 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N3:O8 N9:N10">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="N3:O7 N8:N10 O8:O9">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3248,7 +3224,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T24" sqref="T24"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3274,29 +3250,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111"/>
-      <c r="B1" s="113" t="s">
+      <c r="A1" s="113"/>
+      <c r="B1" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="120" t="s">
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="122"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="124"/>
       <c r="N1" s="50"/>
       <c r="O1" s="50"/>
       <c r="P1" s="50"/>
@@ -3305,10 +3281,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -3378,10 +3354,10 @@
         <v>-1</v>
       </c>
       <c r="O3" s="88">
-        <f t="shared" ref="O3:O9" si="1">((K3-G3)*L3)-M3</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="125">
+        <f t="shared" ref="O3:O10" si="1">((K3-G3)*L3)-M3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="108">
         <f>J3-E3</f>
         <v>-44606</v>
       </c>
@@ -3431,7 +3407,7 @@
         <f t="shared" si="1"/>
         <v>60.299999999999969</v>
       </c>
-      <c r="P4" s="125">
+      <c r="P4" s="108">
         <f t="shared" ref="P4:P15" si="2">J4-E4</f>
         <v>14</v>
       </c>
@@ -3467,13 +3443,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P5" s="125">
+      <c r="P5" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q5" s="90"/>
     </row>
-    <row r="6" spans="1:18" s="108" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="107" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="98"/>
       <c r="B6" s="99">
         <v>5</v>
@@ -3497,23 +3473,31 @@
       <c r="I6" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="106">
+      <c r="J6" s="125">
+        <v>44622</v>
+      </c>
+      <c r="K6" s="103">
+        <v>116.8</v>
+      </c>
+      <c r="L6" s="103">
+        <v>10</v>
+      </c>
+      <c r="M6" s="105">
+        <v>0.2</v>
+      </c>
+      <c r="N6" s="89">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="O6" s="105">
+        <v>0.11813134214053229</v>
+      </c>
+      <c r="O6" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="125">
+        <v>123.20000000000003</v>
+      </c>
+      <c r="P6" s="108">
         <f t="shared" si="2"/>
-        <v>-44606</v>
-      </c>
-      <c r="Q6" s="107"/>
+        <v>16</v>
+      </c>
+      <c r="Q6" s="106"/>
     </row>
     <row r="7" spans="1:18" s="91" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="81"/>
@@ -3551,7 +3535,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P7" s="125">
+      <c r="P7" s="108">
         <f t="shared" si="2"/>
         <v>-44606</v>
       </c>
@@ -3579,15 +3563,15 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="52" t="e">
+      <c r="N8" s="89" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="51">
+      <c r="O8" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P8" s="125">
+      <c r="P8" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3620,11 +3604,11 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="43">
+      <c r="O9" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P9" s="125">
+      <c r="P9" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3650,8 +3634,11 @@
       <c r="L10" s="86"/>
       <c r="M10" s="88"/>
       <c r="N10" s="89"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="125">
+      <c r="O10" s="88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3678,7 +3665,7 @@
       <c r="M11" s="86"/>
       <c r="N11" s="89"/>
       <c r="O11" s="88"/>
-      <c r="P11" s="125">
+      <c r="P11" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3705,7 +3692,7 @@
       <c r="M12" s="86"/>
       <c r="N12" s="89"/>
       <c r="O12" s="88"/>
-      <c r="P12" s="125">
+      <c r="P12" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3729,7 +3716,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="52"/>
       <c r="O13" s="51"/>
-      <c r="P13" s="125">
+      <c r="P13" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3753,7 +3740,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="52"/>
       <c r="O14" s="53"/>
-      <c r="P14" s="125">
+      <c r="P14" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3777,7 +3764,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="52"/>
       <c r="O15" s="53"/>
-      <c r="P15" s="125">
+      <c r="P15" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3857,7 +3844,7 @@
       <c r="L19" s="45"/>
       <c r="M19" s="26">
         <f>SUM(M3:M18)</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="N19" s="52" t="e">
         <f>(O19)/#REF!</f>
@@ -3865,7 +3852,7 @@
       </c>
       <c r="O19" s="54">
         <f>SUM(O3:O18)</f>
-        <v>60.299999999999969</v>
+        <v>183.5</v>
       </c>
       <c r="P19" s="55"/>
       <c r="Q19" s="10"/>
@@ -3887,11 +3874,11 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N10:N19 O10:O13 N3:O9">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="N3:O4 N5:N19 O5:O13">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3911,7 +3898,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId8"/>
-  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -3921,7 +3907,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomLeft" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3948,44 +3934,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111"/>
-      <c r="B1" s="113" t="s">
+      <c r="A1" s="113"/>
+      <c r="B1" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="120" t="s">
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="122"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="124"/>
       <c r="N1" s="50"/>
       <c r="O1" s="50"/>
       <c r="P1" s="50"/>
       <c r="Q1" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="123" t="s">
+      <c r="S1" s="111" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="112"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -4024,7 +4010,7 @@
       <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="124"/>
+      <c r="S2" s="112"/>
     </row>
     <row r="3" spans="1:23" s="74" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="63"/>
@@ -4422,10 +4408,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="N3:O8 N9:N10">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2022/CB-D-week-loop.xlsx
+++ b/2022/CB-D-week-loop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B61D939-D7D4-4252-8DAE-E1790D458B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0ABA53-3769-42B4-81F0-1ECE92E0992E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="43">
   <si>
     <t>总计</t>
   </si>
@@ -147,16 +147,6 @@
     <t>绿茵转债</t>
   </si>
   <si>
-    <t>塞力转债</t>
-  </si>
-  <si>
-    <t>海环转债</t>
-  </si>
-  <si>
-    <t>东湖转债</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>湖广转债</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -166,18 +156,6 @@
   </si>
   <si>
     <t>买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>文科转债</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>科华转债</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>华源转债</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -206,6 +184,10 @@
   </si>
   <si>
     <t>华安转债</t>
+  </si>
+  <si>
+    <t>蓝帆转债</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -332,7 +314,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,18 +347,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -387,14 +357,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -642,12 +606,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -762,29 +776,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -793,47 +785,33 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -900,98 +878,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1057,8 +1025,40 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2552,7 +2552,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2675,7 +2675,7 @@
       <c r="C12" s="33">
         <v>0</v>
       </c>
-      <c r="D12" s="48"/>
+      <c r="D12" s="41"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
@@ -2714,11 +2714,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBB5B58-1401-4091-9A89-9497DD2510F5}">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2736,53 +2736,53 @@
     <col min="11" max="11" width="8.5" style="14" customWidth="1"/>
     <col min="12" max="12" width="5.25" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" style="56" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="56" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="56" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="49" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="49" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="49" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="12" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.75" style="19"/>
     <col min="20" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113"/>
-      <c r="B1" s="115" t="s">
+      <c r="A1" s="99"/>
+      <c r="B1" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="122" t="s">
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="109" t="s">
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="111" t="s">
+      <c r="S1" s="97" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -2808,110 +2808,110 @@
       <c r="M2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="N2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="110"/>
+      <c r="Q2" s="96"/>
       <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="112"/>
-    </row>
-    <row r="3" spans="1:23" s="74" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64">
+      <c r="S2" s="98"/>
+    </row>
+    <row r="3" spans="1:23" s="63" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53">
         <v>1</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="54">
         <v>128100</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67">
+      <c r="E3" s="55"/>
+      <c r="F3" s="56">
         <v>10</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="69" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="71" t="e">
+      <c r="J3" s="59"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="60" t="e">
         <f>(K3-G3)/G3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="67">
+      <c r="O3" s="56">
         <f>((K3-G3)*L3)-M3</f>
         <v>0</v>
       </c>
-      <c r="P3" s="72">
+      <c r="P3" s="61">
         <f>J3-E3</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="73"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="76"/>
-    </row>
-    <row r="4" spans="1:23" s="76" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64">
+      <c r="Q3" s="62"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="65"/>
+    </row>
+    <row r="4" spans="1:23" s="65" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53">
         <v>2</v>
       </c>
       <c r="C4" s="24">
         <v>110067</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="66">
+        <v>41</v>
+      </c>
+      <c r="E4" s="55">
         <v>44622</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="58">
         <v>10</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="66">
         <v>112.11</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="69" t="s">
+      <c r="H4" s="56"/>
+      <c r="I4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="71">
-        <f t="shared" ref="N4:N9" si="0">(K4-G4)/G4</f>
+      <c r="J4" s="59"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="60">
+        <f t="shared" ref="N4:N10" si="0">(K4-G4)/G4</f>
         <v>-1</v>
       </c>
-      <c r="O4" s="67">
+      <c r="O4" s="56">
         <f t="shared" ref="O4:O9" si="1">((K4-G4)*L4)-M4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="72">
-        <f t="shared" ref="P4:P8" si="2">J4-E4</f>
+      <c r="P4" s="61">
+        <f t="shared" ref="P4:P10" si="2">J4-E4</f>
         <v>-44622</v>
       </c>
-      <c r="Q4" s="78"/>
-      <c r="S4" s="75"/>
-      <c r="W4" s="79" t="s">
+      <c r="Q4" s="67"/>
+      <c r="S4" s="64"/>
+      <c r="W4" s="68" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="76" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64">
+    <row r="5" spans="1:23" s="65" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53">
         <v>3</v>
       </c>
       <c r="C5" s="37">
@@ -2920,164 +2920,172 @@
       <c r="D5" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="69">
+      <c r="E5" s="55"/>
+      <c r="F5" s="58">
         <v>10</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="69" t="s">
+      <c r="G5" s="66"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="71" t="e">
+      <c r="J5" s="59"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="60" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="67">
+      <c r="O5" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P5" s="72">
+      <c r="P5" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="78"/>
-      <c r="S5" s="75"/>
-    </row>
-    <row r="6" spans="1:23" s="76" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64">
+      <c r="Q5" s="67"/>
+      <c r="S5" s="64"/>
+    </row>
+    <row r="6" spans="1:23" s="65" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="53">
         <v>4</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="54">
         <v>113044</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="69">
+      <c r="E6" s="55"/>
+      <c r="F6" s="58">
         <v>10</v>
       </c>
-      <c r="G6" s="80"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="69" t="s">
+      <c r="G6" s="69"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="71" t="e">
+      <c r="J6" s="59"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="60" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="67">
+      <c r="O6" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P6" s="72">
+      <c r="P6" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="78"/>
-      <c r="S6" s="75"/>
-    </row>
-    <row r="7" spans="1:23" s="76" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64">
+      <c r="Q6" s="67"/>
+      <c r="S6" s="64"/>
+    </row>
+    <row r="7" spans="1:23" s="65" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="53">
         <v>5</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="54">
         <v>127019</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="69">
+        <v>38</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="58">
         <v>10</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="69" t="s">
+      <c r="G7" s="66"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="71" t="e">
+      <c r="J7" s="59"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="60" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="67">
+      <c r="O7" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P7" s="72">
+      <c r="P7" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="78"/>
-      <c r="S7" s="75"/>
-      <c r="W7" s="76" t="s">
+      <c r="Q7" s="67"/>
+      <c r="S7" s="64"/>
+      <c r="W7" s="65" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="76" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="64">
+    <row r="8" spans="1:23" s="65" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="53">
         <v>6</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="66">
+        <v>40</v>
+      </c>
+      <c r="E8" s="55">
         <v>44622</v>
       </c>
-      <c r="F8" s="69">
+      <c r="F8" s="58">
         <v>10</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="66">
         <v>112.715</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="71">
+      <c r="H8" s="56"/>
+      <c r="I8" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="59">
+        <v>44790</v>
+      </c>
+      <c r="K8" s="58">
+        <v>116.839</v>
+      </c>
+      <c r="L8" s="58">
+        <v>10</v>
+      </c>
+      <c r="M8" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="N8" s="60">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="O8" s="67">
+        <v>3.6587854322849625E-2</v>
+      </c>
+      <c r="O8" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="72">
+        <v>41.039999999999949</v>
+      </c>
+      <c r="P8" s="61">
         <f t="shared" si="2"/>
-        <v>-44622</v>
-      </c>
-      <c r="Q8" s="78"/>
-      <c r="S8" s="75"/>
+        <v>168</v>
+      </c>
+      <c r="Q8" s="67"/>
+      <c r="S8" s="64"/>
     </row>
     <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="65">
+      <c r="C9" s="54">
         <v>110045</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="66">
+        <v>37</v>
+      </c>
+      <c r="E9" s="55">
         <v>44633</v>
       </c>
       <c r="F9" s="16">
@@ -3087,97 +3095,137 @@
         <v>114.11</v>
       </c>
       <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="I9" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="28"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="71">
+      <c r="N9" s="60">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="O9" s="67">
+      <c r="O9" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P9" s="53"/>
+      <c r="P9" s="61">
+        <f t="shared" si="2"/>
+        <v>-44633</v>
+      </c>
       <c r="Q9" s="7"/>
       <c r="S9" s="27"/>
     </row>
-    <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="17">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B10" s="111"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="121" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="113">
+        <v>44791</v>
+      </c>
+      <c r="F10" s="114">
+        <v>10</v>
+      </c>
+      <c r="G10" s="115">
+        <v>104.003</v>
+      </c>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="116"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="60">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="O10" s="119"/>
+      <c r="P10" s="61">
+        <f t="shared" si="2"/>
+        <v>-44791</v>
+      </c>
+      <c r="Q10" s="120"/>
+      <c r="S10" s="27"/>
+    </row>
+    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="17">
         <f>SUM(H3:H8)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="26">
+      <c r="I11" s="17"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="26">
         <f>SUM(M3:M9)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="52" t="e">
-        <f>(O10)/#REF!</f>
+        <v>0.2</v>
+      </c>
+      <c r="N11" s="45" t="e">
+        <f>(O11)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="O10" s="54">
-        <f>SUM(O3:O8)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="10"/>
-      <c r="S10" s="25"/>
-    </row>
-    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="37">
-        <v>128127</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>45</v>
-      </c>
-    </row>
+      <c r="O11" s="47">
+        <f>SUM(O3:O10)</f>
+        <v>41.039999999999949</v>
+      </c>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="10"/>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
-        <v>127006</v>
+        <v>128127</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
+        <v>127006</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="37">
         <v>110067</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="38"/>
-    </row>
-    <row r="18" spans="3:14" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C18" s="47"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="N19" s="56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C29" s="31"/>
+      <c r="D15" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="38"/>
+    </row>
+    <row r="19" spans="3:14" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C19" s="40"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C30" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3191,7 +3239,7 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N3:O7 N8:N10 O8:O9">
+  <conditionalFormatting sqref="N3:O7 O8:O10 N8:N11">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3209,9 +3257,9 @@
     <hyperlink ref="C9" r:id="rId2" display="https://www.jisilu.cn/data/convert_bond_detail/110045" xr:uid="{DF761325-DA3D-45AC-8493-4002115256D5}"/>
     <hyperlink ref="C6" r:id="rId3" display="https://www.jisilu.cn/data/convert_bond_detail/113044" xr:uid="{874B1D63-0AC4-4E0C-A9BD-60F88D991EFC}"/>
     <hyperlink ref="C5" r:id="rId4" display="https://www.jisilu.cn/data/convert_bond_detail/127034" xr:uid="{325BD4D0-E431-4A23-8AEC-62E1210E0396}"/>
-    <hyperlink ref="C12" r:id="rId5" display="https://www.jisilu.cn/data/convert_bond_detail/128127" xr:uid="{5CA675ED-E190-426F-8FE3-3D3D0BA871C1}"/>
-    <hyperlink ref="C13" r:id="rId6" display="https://www.jisilu.cn/data/convert_bond_detail/127006" xr:uid="{4FBA5DA3-7B87-4EA2-98FF-9ABF54BADDE9}"/>
-    <hyperlink ref="C14" r:id="rId7" display="https://www.jisilu.cn/data/convert_bond_detail/110067" xr:uid="{2369B92B-B371-423B-A381-22AC0AD3CBD6}"/>
+    <hyperlink ref="C13" r:id="rId5" display="https://www.jisilu.cn/data/convert_bond_detail/128127" xr:uid="{5CA675ED-E190-426F-8FE3-3D3D0BA871C1}"/>
+    <hyperlink ref="C14" r:id="rId6" display="https://www.jisilu.cn/data/convert_bond_detail/127006" xr:uid="{4FBA5DA3-7B87-4EA2-98FF-9ABF54BADDE9}"/>
+    <hyperlink ref="C15" r:id="rId7" display="https://www.jisilu.cn/data/convert_bond_detail/110067" xr:uid="{2369B92B-B371-423B-A381-22AC0AD3CBD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId8"/>
@@ -3220,11 +3268,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5931A806-A1A8-411D-B836-CCA3F8001F21}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3242,49 +3290,49 @@
     <col min="11" max="11" width="8.5" style="14" customWidth="1"/>
     <col min="12" max="12" width="5.25" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" style="56" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="56" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="56" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="49" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="49" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="49" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="1" customWidth="1"/>
     <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113"/>
-      <c r="B1" s="115" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="99"/>
+      <c r="B1" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="122" t="s">
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="109" t="s">
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="95" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="100"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -3310,558 +3358,365 @@
       <c r="M2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="N2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="110"/>
-    </row>
-    <row r="3" spans="1:18" s="91" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82">
+      <c r="Q2" s="96"/>
+    </row>
+    <row r="3" spans="1:17" s="80" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71">
         <v>1</v>
       </c>
-      <c r="C3" s="83">
+      <c r="C3" s="72">
         <v>113044</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="85">
+      <c r="E3" s="74">
         <v>44606</v>
       </c>
-      <c r="F3" s="86">
+      <c r="F3" s="75">
         <v>10</v>
       </c>
-      <c r="G3" s="87">
+      <c r="G3" s="76">
         <v>114.67</v>
       </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="86" t="s">
+      <c r="H3" s="77"/>
+      <c r="I3" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="96"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89">
-        <f t="shared" ref="N3:N9" si="0">(K3-G3)/G3</f>
+      <c r="J3" s="81"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78">
+        <f t="shared" ref="N3:N6" si="0">(K3-G3)/G3</f>
         <v>-1</v>
       </c>
-      <c r="O3" s="88">
-        <f t="shared" ref="O3:O10" si="1">((K3-G3)*L3)-M3</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="108">
+      <c r="O3" s="77">
+        <f t="shared" ref="O3:O6" si="1">((K3-G3)*L3)-M3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="93">
         <f>J3-E3</f>
         <v>-44606</v>
       </c>
-      <c r="Q3" s="90"/>
-    </row>
-    <row r="4" spans="1:18" s="91" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82">
+      <c r="Q3" s="79"/>
+    </row>
+    <row r="4" spans="1:17" s="80" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="70"/>
+      <c r="B4" s="71">
         <v>3</v>
       </c>
-      <c r="C4" s="84">
+      <c r="C4" s="73">
         <v>110068</v>
       </c>
-      <c r="D4" s="97" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="85">
+      <c r="D4" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="74">
         <v>44606</v>
       </c>
-      <c r="F4" s="86">
+      <c r="F4" s="75">
         <v>10</v>
       </c>
-      <c r="G4" s="87">
+      <c r="G4" s="76">
         <v>113.11</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="86" t="s">
+      <c r="H4" s="77"/>
+      <c r="I4" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="96">
+      <c r="J4" s="81">
         <v>44620</v>
       </c>
-      <c r="K4" s="86">
+      <c r="K4" s="75">
         <v>119.16</v>
       </c>
-      <c r="L4" s="86">
+      <c r="L4" s="75">
         <v>10</v>
       </c>
-      <c r="M4" s="88">
+      <c r="M4" s="77">
         <v>0.2</v>
       </c>
-      <c r="N4" s="89">
+      <c r="N4" s="78">
         <f t="shared" si="0"/>
         <v>5.3487755282468366E-2</v>
       </c>
-      <c r="O4" s="88">
+      <c r="O4" s="77">
         <f t="shared" si="1"/>
         <v>60.299999999999969</v>
       </c>
-      <c r="P4" s="108">
-        <f t="shared" ref="P4:P15" si="2">J4-E4</f>
+      <c r="P4" s="93">
+        <f t="shared" ref="P4:P9" si="2">J4-E4</f>
         <v>14</v>
       </c>
-      <c r="Q4" s="90"/>
-    </row>
-    <row r="5" spans="1:18" s="91" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82">
-        <v>4</v>
-      </c>
-      <c r="C5" s="83">
-        <v>110080</v>
-      </c>
-      <c r="D5" s="97" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="86" t="s">
+      <c r="Q4" s="79"/>
+    </row>
+    <row r="5" spans="1:17" s="92" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="83"/>
+      <c r="B5" s="84">
+        <v>5</v>
+      </c>
+      <c r="C5" s="85">
+        <v>128100</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="87">
+        <v>44606</v>
+      </c>
+      <c r="F5" s="88">
+        <v>10</v>
+      </c>
+      <c r="G5" s="89">
+        <v>104.46</v>
+      </c>
+      <c r="H5" s="90"/>
+      <c r="I5" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="89" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="108">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="90"/>
-    </row>
-    <row r="6" spans="1:18" s="107" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
-      <c r="B6" s="99">
-        <v>5</v>
-      </c>
-      <c r="C6" s="100">
-        <v>128100</v>
-      </c>
-      <c r="D6" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="102">
-        <v>44606</v>
-      </c>
-      <c r="F6" s="103">
+      <c r="J5" s="94">
+        <v>44622</v>
+      </c>
+      <c r="K5" s="88">
+        <v>116.8</v>
+      </c>
+      <c r="L5" s="88">
         <v>10</v>
       </c>
-      <c r="G6" s="104">
-        <v>104.46</v>
-      </c>
-      <c r="H6" s="105"/>
-      <c r="I6" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="125">
-        <v>44622</v>
-      </c>
-      <c r="K6" s="103">
-        <v>116.8</v>
-      </c>
-      <c r="L6" s="103">
-        <v>10</v>
-      </c>
-      <c r="M6" s="105">
+      <c r="M5" s="90">
         <v>0.2</v>
       </c>
-      <c r="N6" s="89">
+      <c r="N5" s="78">
         <f t="shared" si="0"/>
         <v>0.11813134214053229</v>
       </c>
-      <c r="O6" s="88">
+      <c r="O5" s="77">
         <f t="shared" si="1"/>
         <v>123.20000000000003</v>
       </c>
-      <c r="P6" s="108">
+      <c r="P5" s="93">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="Q6" s="106"/>
-    </row>
-    <row r="7" spans="1:18" s="91" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
-      <c r="B7" s="82">
+      <c r="Q5" s="91"/>
+    </row>
+    <row r="6" spans="1:17" s="80" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
+      <c r="B6" s="71">
         <v>6</v>
       </c>
-      <c r="C7" s="83">
+      <c r="C6" s="72">
         <v>127034</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D6" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E6" s="74">
         <v>44606</v>
       </c>
-      <c r="F7" s="86">
+      <c r="F6" s="75">
         <v>10</v>
       </c>
-      <c r="G7" s="87">
+      <c r="G6" s="76">
         <v>110.69</v>
       </c>
-      <c r="H7" s="88"/>
-      <c r="I7" s="86" t="s">
+      <c r="H6" s="77"/>
+      <c r="I6" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="89">
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="78">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="O7" s="88">
+      <c r="O6" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P7" s="108">
+      <c r="P6" s="93">
         <f t="shared" si="2"/>
         <v>-44606</v>
       </c>
-      <c r="Q7" s="90"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="92">
-        <v>7</v>
-      </c>
-      <c r="C8" s="93">
-        <v>113601</v>
-      </c>
-      <c r="D8" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="58"/>
+      <c r="Q6" s="79"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="16"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="86" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="75" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="89" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="108">
+      <c r="M8" s="12"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q8" s="7"/>
-      <c r="R8" s="39"/>
-    </row>
-    <row r="9" spans="1:18" s="40" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="92">
-        <v>8</v>
-      </c>
-      <c r="C9" s="93">
-        <v>113532</v>
-      </c>
-      <c r="D9" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="86" t="s">
+    </row>
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="62" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="108">
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="44"/>
-    </row>
-    <row r="10" spans="1:18" s="91" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="82"/>
-      <c r="C10" s="83">
-        <v>128127</v>
-      </c>
-      <c r="D10" s="95" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="86" t="s">
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="108">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="90"/>
-    </row>
-    <row r="11" spans="1:18" s="91" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="82"/>
-      <c r="C11" s="83">
-        <v>128124</v>
-      </c>
-      <c r="D11" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="108">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="90"/>
-    </row>
-    <row r="12" spans="1:18" s="91" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="82"/>
-      <c r="C12" s="83">
-        <v>128049</v>
-      </c>
-      <c r="D12" s="95" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="108">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="90"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="58"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="5"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="5"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="108">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="108">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="108">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="5"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="5"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="17">
-        <f>SUM(H3:H9)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="26">
-        <f>SUM(M3:M18)</f>
+      <c r="G13" s="23"/>
+      <c r="H13" s="17">
+        <f>SUM(H3:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="26">
+        <f>SUM(M3:M12)</f>
         <v>0.4</v>
       </c>
-      <c r="N19" s="52" t="e">
-        <f>(O19)/#REF!</f>
+      <c r="N13" s="45" t="e">
+        <f>(O13)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="O19" s="54">
-        <f>SUM(O3:O18)</f>
+      <c r="O13" s="47">
+        <f>SUM(O3:O12)</f>
         <v>183.5</v>
       </c>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="10"/>
-    </row>
-    <row r="22" spans="2:17" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C22" s="47"/>
-    </row>
-    <row r="33" spans="3:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C33" s="31"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C16" s="40"/>
+    </row>
+    <row r="27" spans="3:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C27" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3874,7 +3729,7 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N3:O4 N5:N19 O5:O13">
+  <conditionalFormatting sqref="N3:O4 N5:N13 O5:O7">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3883,21 +3738,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I16" xr:uid="{300A2D70-BCD0-40E1-983F-866A4D05695D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I10" xr:uid="{300A2D70-BCD0-40E1-983F-866A4D05695D}">
       <formula1>"清,买,中"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://www.jisilu.cn/data/convert_bond_detail/113044" xr:uid="{13CFC3F6-648E-41A3-8DC7-15CD8EBA3F80}"/>
     <hyperlink ref="C4" r:id="rId2" display="https://www.jisilu.cn/data/convert_bond_detail/113033" xr:uid="{F2BB8519-51ED-481A-A121-A6A37192EFB5}"/>
-    <hyperlink ref="C5" r:id="rId3" display="https://www.jisilu.cn/data/convert_bond_detail/110080" xr:uid="{1F31D035-6411-4AC0-8E1B-FF22C2BEB294}"/>
-    <hyperlink ref="C6" r:id="rId4" display="https://www.jisilu.cn/data/convert_bond_detail/128100" xr:uid="{AD026F30-85D8-49F1-949E-5A710E6508BA}"/>
-    <hyperlink ref="C7" r:id="rId5" display="https://www.jisilu.cn/data/convert_bond_detail/127034" xr:uid="{584A935A-52C5-4D6B-AB1F-72CF0318A1B8}"/>
-    <hyperlink ref="C8" r:id="rId6" display="https://www.jisilu.cn/data/convert_bond_detail/113601" xr:uid="{B4EBED84-E924-4F48-B05C-90B3D6F66DBC}"/>
-    <hyperlink ref="C9" r:id="rId7" display="https://www.jisilu.cn/data/convert_bond_detail/113532" xr:uid="{8A950C5C-75D4-400B-8E28-78D1D25A97DC}"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://www.jisilu.cn/data/convert_bond_detail/128100" xr:uid="{AD026F30-85D8-49F1-949E-5A710E6508BA}"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://www.jisilu.cn/data/convert_bond_detail/127034" xr:uid="{584A935A-52C5-4D6B-AB1F-72CF0318A1B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3925,53 +3777,53 @@
     <col min="11" max="11" width="8.5" style="14" customWidth="1"/>
     <col min="12" max="12" width="5.25" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" style="56" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="56" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="56" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="49" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="49" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="49" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="12" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.75" style="19"/>
     <col min="20" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113"/>
-      <c r="B1" s="115" t="s">
+      <c r="A1" s="99"/>
+      <c r="B1" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="122" t="s">
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="109" t="s">
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="111" t="s">
+      <c r="S1" s="97" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -3997,76 +3849,76 @@
       <c r="M2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="N2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="110"/>
+      <c r="Q2" s="96"/>
       <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="112"/>
-    </row>
-    <row r="3" spans="1:23" s="74" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64">
+      <c r="S2" s="98"/>
+    </row>
+    <row r="3" spans="1:23" s="63" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53">
         <v>1</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="54">
         <v>128100</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="55">
         <v>44571</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="56">
         <v>10</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G3" s="57">
         <v>111.988</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="69" t="s">
+      <c r="H3" s="56"/>
+      <c r="I3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="70">
+      <c r="J3" s="59">
         <v>44574</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="58">
         <v>114.14</v>
       </c>
-      <c r="L3" s="67">
+      <c r="L3" s="56">
         <v>10</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="56">
         <v>0.2</v>
       </c>
-      <c r="N3" s="71">
+      <c r="N3" s="60">
         <f>(K3-G3)/G3</f>
         <v>1.9216344608350904E-2</v>
       </c>
-      <c r="O3" s="67">
+      <c r="O3" s="56">
         <f>((K3-G3)*L3)-M3</f>
         <v>21.320000000000011</v>
       </c>
-      <c r="P3" s="72">
+      <c r="P3" s="61">
         <f>J3-E3</f>
         <v>3</v>
       </c>
-      <c r="Q3" s="73"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="76"/>
-    </row>
-    <row r="4" spans="1:23" s="76" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64">
+      <c r="Q3" s="62"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="65"/>
+    </row>
+    <row r="4" spans="1:23" s="65" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53">
         <v>2</v>
       </c>
       <c r="C4" s="37">
@@ -4075,46 +3927,46 @@
       <c r="D4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="55">
         <v>44571</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="58">
         <v>10</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="66">
         <v>113.68</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="69" t="s">
+      <c r="H4" s="56"/>
+      <c r="I4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="67">
+      <c r="J4" s="59"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="56">
         <v>0.2</v>
       </c>
-      <c r="N4" s="71">
+      <c r="N4" s="60">
         <f t="shared" ref="N4:N8" si="0">(K4-G4)/G4</f>
         <v>-1</v>
       </c>
-      <c r="O4" s="67">
+      <c r="O4" s="56">
         <f t="shared" ref="O4:O5" si="1">((K4-G4)*L4)-M4</f>
         <v>-0.2</v>
       </c>
-      <c r="P4" s="72">
+      <c r="P4" s="61">
         <f t="shared" ref="P4:P8" si="2">J4-E4</f>
         <v>-44571</v>
       </c>
-      <c r="Q4" s="78"/>
-      <c r="S4" s="75"/>
-      <c r="W4" s="79" t="s">
+      <c r="Q4" s="67"/>
+      <c r="S4" s="64"/>
+      <c r="W4" s="68" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="76" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64">
+    <row r="5" spans="1:23" s="65" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53">
         <v>3</v>
       </c>
       <c r="C5" s="37">
@@ -4123,49 +3975,49 @@
       <c r="D5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="55">
         <v>44571</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="58">
         <v>10</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="66">
         <v>114.4</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="69" t="s">
+      <c r="H5" s="56"/>
+      <c r="I5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="70">
+      <c r="J5" s="59">
         <v>44606</v>
       </c>
-      <c r="K5" s="76">
+      <c r="K5" s="65">
         <v>117.45</v>
       </c>
-      <c r="L5" s="69">
+      <c r="L5" s="58">
         <v>10</v>
       </c>
-      <c r="M5" s="67">
+      <c r="M5" s="56">
         <v>0.2</v>
       </c>
-      <c r="N5" s="71">
+      <c r="N5" s="60">
         <f t="shared" si="0"/>
         <v>2.6660839160839136E-2</v>
       </c>
-      <c r="O5" s="67">
+      <c r="O5" s="56">
         <f t="shared" si="1"/>
         <v>30.299999999999972</v>
       </c>
-      <c r="P5" s="72">
+      <c r="P5" s="61">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="Q5" s="78"/>
-      <c r="S5" s="75"/>
-    </row>
-    <row r="6" spans="1:23" s="76" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64">
+      <c r="Q5" s="67"/>
+      <c r="S5" s="64"/>
+    </row>
+    <row r="6" spans="1:23" s="65" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="53">
         <v>4</v>
       </c>
       <c r="C6" s="37">
@@ -4174,150 +4026,150 @@
       <c r="D6" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="55">
         <v>44571</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="58">
         <v>10</v>
       </c>
-      <c r="G6" s="80">
+      <c r="G6" s="69">
         <v>111.01</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="69" t="s">
+      <c r="H6" s="56"/>
+      <c r="I6" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="70">
+      <c r="J6" s="59">
         <v>44600</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="58">
         <v>113.32</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="58">
         <v>10</v>
       </c>
-      <c r="M6" s="67">
+      <c r="M6" s="56">
         <v>0.2</v>
       </c>
-      <c r="N6" s="71">
+      <c r="N6" s="60">
         <f t="shared" si="0"/>
         <v>2.0808936131879903E-2</v>
       </c>
-      <c r="O6" s="67">
+      <c r="O6" s="56">
         <f t="shared" ref="O6:O8" si="3">((K6-G6)*L6)-M6</f>
         <v>22.899999999999881</v>
       </c>
-      <c r="P6" s="72">
+      <c r="P6" s="61">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="Q6" s="78"/>
-      <c r="S6" s="75"/>
-    </row>
-    <row r="7" spans="1:23" s="76" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64">
+      <c r="Q6" s="67"/>
+      <c r="S6" s="64"/>
+    </row>
+    <row r="7" spans="1:23" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="52"/>
+      <c r="B7" s="53">
         <v>5</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="54">
         <v>127007</v>
       </c>
-      <c r="D7" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="66">
+      <c r="D7" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="55">
         <v>44571</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="58">
         <v>10</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="66">
         <v>148.06</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="69" t="s">
+      <c r="H7" s="56"/>
+      <c r="I7" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="70">
+      <c r="J7" s="59">
         <v>44572</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="58">
         <v>153.75</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L7" s="58">
         <v>10</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="56">
         <v>0.2</v>
       </c>
-      <c r="N7" s="71">
+      <c r="N7" s="60">
         <f t="shared" si="0"/>
         <v>3.8430366067810334E-2</v>
       </c>
-      <c r="O7" s="67">
+      <c r="O7" s="56">
         <f t="shared" si="3"/>
         <v>56.699999999999974</v>
       </c>
-      <c r="P7" s="72">
+      <c r="P7" s="61">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="78"/>
-      <c r="S7" s="75"/>
-      <c r="W7" s="76" t="s">
+      <c r="Q7" s="67"/>
+      <c r="S7" s="64"/>
+      <c r="W7" s="65" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="76" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="64">
+    <row r="8" spans="1:23" s="65" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="53">
         <v>6</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="54">
         <v>23056</v>
       </c>
-      <c r="D8" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="66">
+      <c r="D8" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="55">
         <v>44572</v>
       </c>
-      <c r="F8" s="69">
+      <c r="F8" s="58">
         <v>10</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="66">
         <v>115.011</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="70">
+      <c r="H8" s="56"/>
+      <c r="I8" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="59">
         <v>44573</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="58">
         <v>116.705</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="58">
         <v>10</v>
       </c>
-      <c r="M8" s="67">
+      <c r="M8" s="56">
         <v>0.2</v>
       </c>
-      <c r="N8" s="71">
+      <c r="N8" s="60">
         <f t="shared" si="0"/>
         <v>1.472902591925992E-2</v>
       </c>
-      <c r="O8" s="67">
+      <c r="O8" s="56">
         <f t="shared" si="3"/>
         <v>16.740000000000027</v>
       </c>
-      <c r="P8" s="72">
+      <c r="P8" s="61">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="78"/>
-      <c r="S8" s="75"/>
+      <c r="Q8" s="67"/>
+      <c r="S8" s="64"/>
     </row>
     <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
@@ -4332,9 +4184,9 @@
       <c r="K9" s="12"/>
       <c r="L9" s="28"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
       <c r="Q9" s="7"/>
       <c r="S9" s="27"/>
     </row>
@@ -4353,21 +4205,21 @@
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="45"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="39"/>
       <c r="M10" s="26">
         <f>SUM(M3:M9)</f>
         <v>1.2</v>
       </c>
-      <c r="N10" s="52" t="e">
+      <c r="N10" s="45" t="e">
         <f>(O10)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="O10" s="54">
+      <c r="O10" s="47">
         <f>SUM(O3:O8)</f>
         <v>147.75999999999988</v>
       </c>
-      <c r="P10" s="55"/>
+      <c r="P10" s="48"/>
       <c r="Q10" s="10"/>
       <c r="S10" s="25"/>
     </row>
@@ -4382,11 +4234,11 @@
       <c r="F15" s="38"/>
     </row>
     <row r="18" spans="3:14" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C18" s="47"/>
+      <c r="C18" s="40"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="N19" s="56" t="s">
-        <v>42</v>
+      <c r="N19" s="49" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="18.75" x14ac:dyDescent="0.35">

--- a/2022/CB-D-week-loop.xlsx
+++ b/2022/CB-D-week-loop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0ABA53-3769-42B4-81F0-1ECE92E0992E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7542D2-6261-4518-81A5-C12B2E7291DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="6060" yWindow="810" windowWidth="21600" windowHeight="14055" activeTab="1" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="收益weekly" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
   <si>
     <t>总计</t>
   </si>
@@ -187,6 +187,10 @@
   </si>
   <si>
     <t>蓝帆转债</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>青农转债</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -661,12 +665,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -705,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -718,10 +722,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,17 +741,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -755,7 +759,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -776,8 +780,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -785,7 +788,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -805,7 +808,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,67 +818,41 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -912,7 +889,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,7 +928,7 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -959,6 +936,37 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1025,39 +1033,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2675,7 +2651,7 @@
       <c r="C12" s="33">
         <v>0</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="40"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
@@ -2718,7 +2694,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2736,53 +2712,53 @@
     <col min="11" max="11" width="8.5" style="14" customWidth="1"/>
     <col min="12" max="12" width="5.25" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" style="49" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="49" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="49" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="48" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="48" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="48" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="12" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.75" style="19"/>
     <col min="20" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99"/>
-      <c r="B1" s="101" t="s">
+      <c r="A1" s="100"/>
+      <c r="B1" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="108" t="s">
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="95" t="s">
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="97" t="s">
+      <c r="S1" s="98" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -2808,64 +2784,63 @@
       <c r="M2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="96"/>
+      <c r="Q2" s="97"/>
       <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="98"/>
-    </row>
-    <row r="3" spans="1:23" s="63" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53">
+      <c r="S2" s="99"/>
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="41">
         <v>1</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="34">
         <v>128100</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56">
+      <c r="E3" s="51"/>
+      <c r="F3" s="52">
         <v>10</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="58" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="60" t="e">
+      <c r="J3" s="54"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="55" t="e">
         <f>(K3-G3)/G3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="56">
+      <c r="O3" s="52">
         <f>((K3-G3)*L3)-M3</f>
         <v>0</v>
       </c>
-      <c r="P3" s="61">
+      <c r="P3" s="56">
         <f>J3-E3</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="62"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="65"/>
-    </row>
-    <row r="4" spans="1:23" s="65" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53">
+      <c r="Q3" s="57"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="41">
         <v>2</v>
       </c>
       <c r="C4" s="24">
@@ -2874,218 +2849,219 @@
       <c r="D4" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="51">
         <v>44622</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="6">
         <v>10</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="59">
         <v>112.11</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="58" t="s">
+      <c r="H4" s="52"/>
+      <c r="I4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="60">
+      <c r="J4" s="54"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="55">
         <f t="shared" ref="N4:N10" si="0">(K4-G4)/G4</f>
         <v>-1</v>
       </c>
-      <c r="O4" s="56">
-        <f t="shared" ref="O4:O9" si="1">((K4-G4)*L4)-M4</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="61">
+      <c r="O4" s="52">
+        <f t="shared" ref="O4:O10" si="1">((K4-G4)*L4)-M4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="56">
         <f t="shared" ref="P4:P10" si="2">J4-E4</f>
         <v>-44622</v>
       </c>
-      <c r="Q4" s="67"/>
-      <c r="S4" s="64"/>
-      <c r="W4" s="68" t="s">
+      <c r="Q4" s="7"/>
+      <c r="S4" s="58"/>
+      <c r="W4" s="30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="65" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53">
+    <row r="5" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="41">
         <v>3</v>
       </c>
-      <c r="C5" s="37">
-        <v>127034</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="58">
+      <c r="C5" s="24">
+        <v>128129</v>
+      </c>
+      <c r="D5" s="112" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="51">
+        <v>44902</v>
+      </c>
+      <c r="F5" s="6">
         <v>10</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="58" t="s">
+      <c r="G5" s="59">
+        <v>100.53100000000001</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="60" t="e">
+      <c r="J5" s="54"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="55">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="O5" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="56">
+        <f t="shared" si="2"/>
+        <v>-44902</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="S5" s="58"/>
+    </row>
+    <row r="6" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="41">
+        <v>4</v>
+      </c>
+      <c r="C6" s="34">
+        <v>113044</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="60"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="54"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="55" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="56">
+      <c r="O6" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P5" s="61">
+      <c r="P6" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="67"/>
-      <c r="S5" s="64"/>
-    </row>
-    <row r="6" spans="1:23" s="65" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53">
-        <v>4</v>
-      </c>
-      <c r="C6" s="54">
-        <v>113044</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="58">
+      <c r="Q6" s="7"/>
+      <c r="S6" s="58"/>
+    </row>
+    <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="41">
+        <v>5</v>
+      </c>
+      <c r="C7" s="34">
+        <v>127019</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="6">
         <v>10</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="58" t="s">
+      <c r="G7" s="59"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="60" t="e">
+      <c r="J7" s="54"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="55" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="56">
+      <c r="O7" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P6" s="61">
+      <c r="P7" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="67"/>
-      <c r="S6" s="64"/>
-    </row>
-    <row r="7" spans="1:23" s="65" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53">
-        <v>5</v>
-      </c>
-      <c r="C7" s="54">
-        <v>127019</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="58">
-        <v>10</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="60" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" s="56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="67"/>
-      <c r="S7" s="64"/>
-      <c r="W7" s="65" t="s">
+      <c r="Q7" s="7"/>
+      <c r="S7" s="58"/>
+      <c r="W7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="65" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53">
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="41">
         <v>6</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="51">
         <v>44622</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="6">
         <v>10</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="59">
         <v>112.715</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="58" t="s">
+      <c r="H8" s="52"/>
+      <c r="I8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="54">
         <v>44790</v>
       </c>
-      <c r="K8" s="58">
+      <c r="K8" s="6">
         <v>116.839</v>
       </c>
-      <c r="L8" s="58">
+      <c r="L8" s="6">
         <v>10</v>
       </c>
-      <c r="M8" s="56">
+      <c r="M8" s="52">
         <v>0.2</v>
       </c>
-      <c r="N8" s="60">
+      <c r="N8" s="55">
         <f t="shared" si="0"/>
         <v>3.6587854322849625E-2</v>
       </c>
-      <c r="O8" s="56">
+      <c r="O8" s="52">
         <f t="shared" si="1"/>
         <v>41.039999999999949</v>
       </c>
-      <c r="P8" s="61">
+      <c r="P8" s="56">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="Q8" s="67"/>
-      <c r="S8" s="64"/>
+      <c r="Q8" s="7"/>
+      <c r="S8" s="58"/>
     </row>
     <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="54">
+      <c r="C9" s="34">
         <v>110045</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="51">
         <v>44633</v>
       </c>
       <c r="F9" s="16">
@@ -3102,15 +3078,15 @@
       <c r="K9" s="12"/>
       <c r="L9" s="28"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="60">
+      <c r="N9" s="55">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="O9" s="56">
+      <c r="O9" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P9" s="61">
+      <c r="P9" s="56">
         <f t="shared" si="2"/>
         <v>-44633</v>
       </c>
@@ -3118,38 +3094,49 @@
       <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="111"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="121" t="s">
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="113">
+      <c r="E10" s="88">
         <v>44791</v>
       </c>
-      <c r="F10" s="114">
+      <c r="F10" s="89">
         <v>10</v>
       </c>
-      <c r="G10" s="115">
+      <c r="G10" s="90">
         <v>104.003</v>
       </c>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114" t="s">
+      <c r="H10" s="89"/>
+      <c r="I10" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="116"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="60">
+      <c r="J10" s="95">
+        <v>44895</v>
+      </c>
+      <c r="K10" s="92">
+        <v>110.002</v>
+      </c>
+      <c r="L10" s="6">
+        <v>10</v>
+      </c>
+      <c r="M10" s="91">
+        <v>0.2</v>
+      </c>
+      <c r="N10" s="55">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="O10" s="119"/>
-      <c r="P10" s="61">
+        <v>5.768102843187211E-2</v>
+      </c>
+      <c r="O10" s="52">
+        <f t="shared" si="1"/>
+        <v>59.789999999999949</v>
+      </c>
+      <c r="P10" s="56">
         <f t="shared" si="2"/>
-        <v>-44791</v>
-      </c>
-      <c r="Q10" s="120"/>
+        <v>104</v>
+      </c>
+      <c r="Q10" s="93"/>
       <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3167,21 +3154,21 @@
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="50"/>
+      <c r="K11" s="49"/>
       <c r="L11" s="39"/>
       <c r="M11" s="26">
         <f>SUM(M3:M9)</f>
         <v>0.2</v>
       </c>
-      <c r="N11" s="45" t="e">
+      <c r="N11" s="44" t="e">
         <f>(O11)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="O11" s="47">
+      <c r="O11" s="46">
         <f>SUM(O3:O10)</f>
-        <v>41.039999999999949</v>
-      </c>
-      <c r="P11" s="48"/>
+        <v>100.8299999999999</v>
+      </c>
+      <c r="P11" s="47"/>
       <c r="Q11" s="10"/>
       <c r="S11" s="25"/>
     </row>
@@ -3217,10 +3204,10 @@
       <c r="F16" s="38"/>
     </row>
     <row r="19" spans="3:14" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C19" s="40"/>
+      <c r="C19" s="31"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="N20" s="49" t="s">
+      <c r="N20" s="48" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3239,7 +3226,7 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N3:O7 O8:O10 N8:N11">
+  <conditionalFormatting sqref="N3:O7 N8:N11 O8:O10">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3290,49 +3277,49 @@
     <col min="11" max="11" width="8.5" style="14" customWidth="1"/>
     <col min="12" max="12" width="5.25" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" style="49" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="49" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="49" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="48" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="48" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="48" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="1" customWidth="1"/>
     <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99"/>
-      <c r="B1" s="101" t="s">
+      <c r="A1" s="100"/>
+      <c r="B1" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="108" t="s">
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="95" t="s">
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="96" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -3358,220 +3345,220 @@
       <c r="M2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="96"/>
-    </row>
-    <row r="3" spans="1:17" s="80" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71">
+      <c r="Q2" s="97"/>
+    </row>
+    <row r="3" spans="1:17" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62">
         <v>1</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="63">
         <v>113044</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="65">
         <v>44606</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="66">
         <v>10</v>
       </c>
-      <c r="G3" s="76">
+      <c r="G3" s="67">
         <v>114.67</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="75" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="78">
+      <c r="J3" s="72"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="69">
         <f t="shared" ref="N3:N6" si="0">(K3-G3)/G3</f>
         <v>-1</v>
       </c>
-      <c r="O3" s="77">
+      <c r="O3" s="68">
         <f t="shared" ref="O3:O6" si="1">((K3-G3)*L3)-M3</f>
         <v>0</v>
       </c>
-      <c r="P3" s="93">
+      <c r="P3" s="84">
         <f>J3-E3</f>
         <v>-44606</v>
       </c>
-      <c r="Q3" s="79"/>
-    </row>
-    <row r="4" spans="1:17" s="80" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71">
+      <c r="Q3" s="70"/>
+    </row>
+    <row r="4" spans="1:17" s="71" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62">
         <v>3</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="64">
         <v>110068</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="65">
         <v>44606</v>
       </c>
-      <c r="F4" s="75">
+      <c r="F4" s="66">
         <v>10</v>
       </c>
-      <c r="G4" s="76">
+      <c r="G4" s="67">
         <v>113.11</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="75" t="s">
+      <c r="H4" s="68"/>
+      <c r="I4" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="81">
+      <c r="J4" s="72">
         <v>44620</v>
       </c>
-      <c r="K4" s="75">
+      <c r="K4" s="66">
         <v>119.16</v>
       </c>
-      <c r="L4" s="75">
+      <c r="L4" s="66">
         <v>10</v>
       </c>
-      <c r="M4" s="77">
+      <c r="M4" s="68">
         <v>0.2</v>
       </c>
-      <c r="N4" s="78">
+      <c r="N4" s="69">
         <f t="shared" si="0"/>
         <v>5.3487755282468366E-2</v>
       </c>
-      <c r="O4" s="77">
+      <c r="O4" s="68">
         <f t="shared" si="1"/>
         <v>60.299999999999969</v>
       </c>
-      <c r="P4" s="93">
+      <c r="P4" s="84">
         <f t="shared" ref="P4:P9" si="2">J4-E4</f>
         <v>14</v>
       </c>
-      <c r="Q4" s="79"/>
-    </row>
-    <row r="5" spans="1:17" s="92" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="84">
+      <c r="Q4" s="70"/>
+    </row>
+    <row r="5" spans="1:17" s="83" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74"/>
+      <c r="B5" s="75">
         <v>5</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="76">
         <v>128100</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="87">
+      <c r="E5" s="78">
         <v>44606</v>
       </c>
-      <c r="F5" s="88">
+      <c r="F5" s="79">
         <v>10</v>
       </c>
-      <c r="G5" s="89">
+      <c r="G5" s="80">
         <v>104.46</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="75" t="s">
+      <c r="H5" s="81"/>
+      <c r="I5" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="94">
+      <c r="J5" s="85">
         <v>44622</v>
       </c>
-      <c r="K5" s="88">
+      <c r="K5" s="79">
         <v>116.8</v>
       </c>
-      <c r="L5" s="88">
+      <c r="L5" s="79">
         <v>10</v>
       </c>
-      <c r="M5" s="90">
+      <c r="M5" s="81">
         <v>0.2</v>
       </c>
-      <c r="N5" s="78">
+      <c r="N5" s="69">
         <f t="shared" si="0"/>
         <v>0.11813134214053229</v>
       </c>
-      <c r="O5" s="77">
+      <c r="O5" s="68">
         <f t="shared" si="1"/>
         <v>123.20000000000003</v>
       </c>
-      <c r="P5" s="93">
+      <c r="P5" s="84">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="Q5" s="91"/>
-    </row>
-    <row r="6" spans="1:17" s="80" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71">
+      <c r="Q5" s="82"/>
+    </row>
+    <row r="6" spans="1:17" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62">
         <v>6</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="63">
         <v>127034</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="65">
         <v>44606</v>
       </c>
-      <c r="F6" s="75">
+      <c r="F6" s="66">
         <v>10</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="67">
         <v>110.69</v>
       </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="75" t="s">
+      <c r="H6" s="68"/>
+      <c r="I6" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="78">
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="69">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="O6" s="77">
+      <c r="O6" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P6" s="93">
+      <c r="P6" s="84">
         <f t="shared" si="2"/>
         <v>-44606</v>
       </c>
-      <c r="Q6" s="79"/>
+      <c r="Q6" s="70"/>
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="42"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
-      <c r="E7" s="51"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="16"/>
       <c r="G7" s="22"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="66" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="93">
+      <c r="N7" s="44"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="84">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3582,20 +3569,20 @@
       <c r="B8" s="5"/>
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
-      <c r="E8" s="51"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="16"/>
       <c r="G8" s="22"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="75" t="s">
+      <c r="I8" s="66" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="93">
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="84">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3606,20 +3593,20 @@
       <c r="B9" s="5"/>
       <c r="C9" s="37"/>
       <c r="D9" s="38"/>
-      <c r="E9" s="51"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="16"/>
       <c r="G9" s="22"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="66" t="s">
         <v>21</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="93">
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="84">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3630,20 +3617,20 @@
       <c r="B10" s="5"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="51"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="16"/>
       <c r="G10" s="22"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="75" t="s">
+      <c r="I10" s="66" t="s">
         <v>21</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -3659,9 +3646,9 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -3677,9 +3664,9 @@
       <c r="K12" s="12"/>
       <c r="L12" s="28"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
       <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3695,25 +3682,25 @@
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="50"/>
+      <c r="K13" s="49"/>
       <c r="L13" s="39"/>
       <c r="M13" s="26">
         <f>SUM(M3:M12)</f>
         <v>0.4</v>
       </c>
-      <c r="N13" s="45" t="e">
+      <c r="N13" s="44" t="e">
         <f>(O13)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="O13" s="47">
+      <c r="O13" s="46">
         <f>SUM(O3:O12)</f>
         <v>183.5</v>
       </c>
-      <c r="P13" s="48"/>
+      <c r="P13" s="47"/>
       <c r="Q13" s="10"/>
     </row>
     <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C16" s="40"/>
+      <c r="C16" s="31"/>
     </row>
     <row r="27" spans="3:3" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C27" s="31"/>
@@ -3777,53 +3764,53 @@
     <col min="11" max="11" width="8.5" style="14" customWidth="1"/>
     <col min="12" max="12" width="5.25" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" style="49" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="49" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="49" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="48" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="48" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="48" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="12" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.75" style="19"/>
     <col min="20" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99"/>
-      <c r="B1" s="101" t="s">
+      <c r="A1" s="100"/>
+      <c r="B1" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="108" t="s">
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="95" t="s">
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="97" t="s">
+      <c r="S1" s="98" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
@@ -3849,76 +3836,75 @@
       <c r="M2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="96"/>
+      <c r="Q2" s="97"/>
       <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="98"/>
-    </row>
-    <row r="3" spans="1:23" s="63" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53">
+      <c r="S2" s="99"/>
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="41">
         <v>1</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="34">
         <v>128100</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="51">
         <v>44571</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="52">
         <v>10</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="53">
         <v>111.988</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="58" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="59">
+      <c r="J3" s="54">
         <v>44574</v>
       </c>
-      <c r="K3" s="58">
+      <c r="K3" s="6">
         <v>114.14</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="52">
         <v>10</v>
       </c>
-      <c r="M3" s="56">
+      <c r="M3" s="52">
         <v>0.2</v>
       </c>
-      <c r="N3" s="60">
+      <c r="N3" s="55">
         <f>(K3-G3)/G3</f>
         <v>1.9216344608350904E-2</v>
       </c>
-      <c r="O3" s="56">
+      <c r="O3" s="52">
         <f>((K3-G3)*L3)-M3</f>
         <v>21.320000000000011</v>
       </c>
-      <c r="P3" s="61">
+      <c r="P3" s="56">
         <f>J3-E3</f>
         <v>3</v>
       </c>
-      <c r="Q3" s="62"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="65"/>
-    </row>
-    <row r="4" spans="1:23" s="65" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53">
+      <c r="Q3" s="57"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="41">
         <v>2</v>
       </c>
       <c r="C4" s="37">
@@ -3927,46 +3913,45 @@
       <c r="D4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="51">
         <v>44571</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="6">
         <v>10</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="59">
         <v>113.68</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="58" t="s">
+      <c r="H4" s="52"/>
+      <c r="I4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="56">
+      <c r="J4" s="54"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="52">
         <v>0.2</v>
       </c>
-      <c r="N4" s="60">
+      <c r="N4" s="55">
         <f t="shared" ref="N4:N8" si="0">(K4-G4)/G4</f>
         <v>-1</v>
       </c>
-      <c r="O4" s="56">
+      <c r="O4" s="52">
         <f t="shared" ref="O4:O5" si="1">((K4-G4)*L4)-M4</f>
         <v>-0.2</v>
       </c>
-      <c r="P4" s="61">
+      <c r="P4" s="56">
         <f t="shared" ref="P4:P8" si="2">J4-E4</f>
         <v>-44571</v>
       </c>
-      <c r="Q4" s="67"/>
-      <c r="S4" s="64"/>
-      <c r="W4" s="68" t="s">
+      <c r="Q4" s="7"/>
+      <c r="S4" s="58"/>
+      <c r="W4" s="30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="65" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53">
+    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="41">
         <v>3</v>
       </c>
       <c r="C5" s="37">
@@ -3975,49 +3960,48 @@
       <c r="D5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="51">
         <v>44571</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="6">
         <v>10</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="59">
         <v>114.4</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="58" t="s">
+      <c r="H5" s="52"/>
+      <c r="I5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="54">
         <v>44606</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="1">
         <v>117.45</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="6">
         <v>10</v>
       </c>
-      <c r="M5" s="56">
+      <c r="M5" s="52">
         <v>0.2</v>
       </c>
-      <c r="N5" s="60">
+      <c r="N5" s="55">
         <f t="shared" si="0"/>
         <v>2.6660839160839136E-2</v>
       </c>
-      <c r="O5" s="56">
+      <c r="O5" s="52">
         <f t="shared" si="1"/>
         <v>30.299999999999972</v>
       </c>
-      <c r="P5" s="61">
+      <c r="P5" s="56">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="Q5" s="67"/>
-      <c r="S5" s="64"/>
-    </row>
-    <row r="6" spans="1:23" s="65" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53">
+      <c r="Q5" s="7"/>
+      <c r="S5" s="58"/>
+    </row>
+    <row r="6" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="41">
         <v>4</v>
       </c>
       <c r="C6" s="37">
@@ -4026,150 +4010,148 @@
       <c r="D6" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="51">
         <v>44571</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="6">
         <v>10</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="60">
         <v>111.01</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="58" t="s">
+      <c r="H6" s="52"/>
+      <c r="I6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="54">
         <v>44600</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="6">
         <v>113.32</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="6">
         <v>10</v>
       </c>
-      <c r="M6" s="56">
+      <c r="M6" s="52">
         <v>0.2</v>
       </c>
-      <c r="N6" s="60">
+      <c r="N6" s="55">
         <f t="shared" si="0"/>
         <v>2.0808936131879903E-2</v>
       </c>
-      <c r="O6" s="56">
+      <c r="O6" s="52">
         <f t="shared" ref="O6:O8" si="3">((K6-G6)*L6)-M6</f>
         <v>22.899999999999881</v>
       </c>
-      <c r="P6" s="61">
+      <c r="P6" s="56">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="Q6" s="67"/>
-      <c r="S6" s="64"/>
-    </row>
-    <row r="7" spans="1:23" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53">
+      <c r="Q6" s="7"/>
+      <c r="S6" s="58"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B7" s="41">
         <v>5</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="34">
         <v>127007</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="51">
         <v>44571</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="6">
         <v>10</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="59">
         <v>148.06</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="58" t="s">
+      <c r="H7" s="52"/>
+      <c r="I7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="54">
         <v>44572</v>
       </c>
-      <c r="K7" s="58">
+      <c r="K7" s="6">
         <v>153.75</v>
       </c>
-      <c r="L7" s="58">
+      <c r="L7" s="6">
         <v>10</v>
       </c>
-      <c r="M7" s="56">
+      <c r="M7" s="52">
         <v>0.2</v>
       </c>
-      <c r="N7" s="60">
+      <c r="N7" s="55">
         <f t="shared" si="0"/>
         <v>3.8430366067810334E-2</v>
       </c>
-      <c r="O7" s="56">
+      <c r="O7" s="52">
         <f t="shared" si="3"/>
         <v>56.699999999999974</v>
       </c>
-      <c r="P7" s="61">
+      <c r="P7" s="56">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="67"/>
-      <c r="S7" s="64"/>
-      <c r="W7" s="65" t="s">
+      <c r="Q7" s="7"/>
+      <c r="S7" s="58"/>
+      <c r="W7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="65" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53">
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="41">
         <v>6</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="34">
         <v>23056</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="51">
         <v>44572</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="6">
         <v>10</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="59">
         <v>115.011</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="58" t="s">
+      <c r="H8" s="52"/>
+      <c r="I8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="54">
         <v>44573</v>
       </c>
-      <c r="K8" s="58">
+      <c r="K8" s="6">
         <v>116.705</v>
       </c>
-      <c r="L8" s="58">
+      <c r="L8" s="6">
         <v>10</v>
       </c>
-      <c r="M8" s="56">
+      <c r="M8" s="52">
         <v>0.2</v>
       </c>
-      <c r="N8" s="60">
+      <c r="N8" s="55">
         <f t="shared" si="0"/>
         <v>1.472902591925992E-2</v>
       </c>
-      <c r="O8" s="56">
+      <c r="O8" s="52">
         <f t="shared" si="3"/>
         <v>16.740000000000027</v>
       </c>
-      <c r="P8" s="61">
+      <c r="P8" s="56">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="67"/>
-      <c r="S8" s="64"/>
+      <c r="Q8" s="7"/>
+      <c r="S8" s="58"/>
     </row>
     <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
@@ -4184,9 +4166,9 @@
       <c r="K9" s="12"/>
       <c r="L9" s="28"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
       <c r="Q9" s="7"/>
       <c r="S9" s="27"/>
     </row>
@@ -4205,21 +4187,21 @@
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="50"/>
+      <c r="K10" s="49"/>
       <c r="L10" s="39"/>
       <c r="M10" s="26">
         <f>SUM(M3:M9)</f>
         <v>1.2</v>
       </c>
-      <c r="N10" s="45" t="e">
+      <c r="N10" s="44" t="e">
         <f>(O10)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="O10" s="47">
+      <c r="O10" s="46">
         <f>SUM(O3:O8)</f>
         <v>147.75999999999988</v>
       </c>
-      <c r="P10" s="48"/>
+      <c r="P10" s="47"/>
       <c r="Q10" s="10"/>
       <c r="S10" s="25"/>
     </row>
@@ -4234,10 +4216,10 @@
       <c r="F15" s="38"/>
     </row>
     <row r="18" spans="3:14" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C18" s="40"/>
+      <c r="C18" s="31"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="N19" s="49" t="s">
+      <c r="N19" s="48" t="s">
         <v>36</v>
       </c>
     </row>
